--- a/ProcessedData/conf_svm_video_1.xlsx
+++ b/ProcessedData/conf_svm_video_1.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>video_number</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>prediction</t>
@@ -393,20 +384,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -414,19 +405,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.7836268828396484</v>
+        <v>-0.9510201695533423</v>
       </c>
       <c r="C2">
-        <v>-0.5516616351956438</v>
+        <v>0.006094638310801592</v>
       </c>
       <c r="D2">
-        <v>0.3033144287529583</v>
+        <v>-0.8240334870585888</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -434,19 +425,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.3059661937409948</v>
+        <v>-0.1446669682764073</v>
       </c>
       <c r="C3">
-        <v>-0.343659951336949</v>
+        <v>-0.00466089469996156</v>
       </c>
       <c r="D3">
-        <v>-0.310556667123937</v>
+        <v>-1.434373942268657</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -454,19 +445,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.571227013082755</v>
+        <v>-0.5721434777480239</v>
       </c>
       <c r="C4">
-        <v>-0.3784361400008409</v>
+        <v>0.04941429512628259</v>
       </c>
       <c r="D4">
-        <v>0.04540913080686237</v>
+        <v>-0.85059719032425</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -474,19 +465,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.5260900434160031</v>
+        <v>-0.786970255321602</v>
       </c>
       <c r="C5">
-        <v>-0.380305718780684</v>
+        <v>0.4264862251406357</v>
       </c>
       <c r="D5">
-        <v>-0.009734720852054374</v>
+        <v>-1.410336079419336</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -494,19 +485,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.4990405735201824</v>
+        <v>-0.7965512769784255</v>
       </c>
       <c r="C6">
-        <v>-0.4460074163188565</v>
+        <v>0.2908402088954892</v>
       </c>
       <c r="D6">
-        <v>-0.05502318152999934</v>
+        <v>-1.296361473888764</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -514,19 +505,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.4805125461675287</v>
+        <v>-0.6840368094201388</v>
       </c>
       <c r="C7">
-        <v>-0.2971980606141926</v>
+        <v>-0.1147946645210728</v>
       </c>
       <c r="D7">
-        <v>0.01400730105504791</v>
+        <v>-0.2850379415285678</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -534,13 +525,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.162874775334517</v>
+        <v>0.1760625118378038</v>
       </c>
       <c r="C8">
-        <v>-0.419568012548256</v>
+        <v>-0.3131813554497339</v>
       </c>
       <c r="D8">
-        <v>-0.7434519792116036</v>
+        <v>-1.308391964433017</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -554,19 +545,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.4596361753018628</v>
+        <v>-0.8485508577087216</v>
       </c>
       <c r="C9">
-        <v>-0.4686824315804569</v>
+        <v>0.3443438247682791</v>
       </c>
       <c r="D9">
-        <v>-0.004769485630019249</v>
+        <v>-1.411530181008664</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -574,19 +565,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.2585369053415165</v>
+        <v>-0.3427392534051608</v>
       </c>
       <c r="C10">
-        <v>-0.4077889702322079</v>
+        <v>0.1232485260151002</v>
       </c>
       <c r="D10">
-        <v>-0.3366156773265899</v>
+        <v>-1.431264777768457</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -594,19 +585,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.818975284918275</v>
+        <v>-1.44453984907483</v>
       </c>
       <c r="C11">
-        <v>-0.3875544751095453</v>
+        <v>0.2724757920114378</v>
       </c>
       <c r="D11">
-        <v>0.3993735279028019</v>
+        <v>-0.191256194807296</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -614,19 +605,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.3634307737655456</v>
+        <v>-0.6145336328032929</v>
       </c>
       <c r="C12">
-        <v>-0.5505745735446645</v>
+        <v>0.4127031196256205</v>
       </c>
       <c r="D12">
-        <v>-0.03828679397206365</v>
+        <v>-1.96340201537951</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -634,19 +625,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.6242588522282199</v>
+        <v>-1.091863789872451</v>
       </c>
       <c r="C13">
-        <v>-0.4465951914338866</v>
+        <v>0.2947539486490458</v>
       </c>
       <c r="D13">
-        <v>0.2372508810466652</v>
+        <v>-0.990087909646709</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -654,19 +645,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.3804707559313538</v>
+        <v>-0.49260404783324</v>
       </c>
       <c r="C14">
-        <v>-0.4270250916836132</v>
+        <v>0.2407216282538783</v>
       </c>
       <c r="D14">
-        <v>-0.1150620367124783</v>
+        <v>-1.654030261312557</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -674,19 +665,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.3643946239648013</v>
+        <v>-0.6152583030129536</v>
       </c>
       <c r="C15">
-        <v>-0.3766650421109802</v>
+        <v>0.4196567619248847</v>
       </c>
       <c r="D15">
-        <v>-0.08439991515322462</v>
+        <v>-1.458999539870652</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -694,19 +685,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.4398266560617723</v>
+        <v>-0.6369105806791482</v>
       </c>
       <c r="C16">
-        <v>-0.4435903342266294</v>
+        <v>0.2457561253756898</v>
       </c>
       <c r="D16">
-        <v>0.0365673031610404</v>
+        <v>-1.270929474642294</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -714,19 +705,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.4453616392095661</v>
+        <v>-0.5870876288693498</v>
       </c>
       <c r="C17">
-        <v>-0.3536346639116973</v>
+        <v>0.005136009787134022</v>
       </c>
       <c r="D17">
-        <v>-0.03988081388320792</v>
+        <v>-0.6040731643674051</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -734,19 +725,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.3515870375006663</v>
+        <v>-0.5433923939899546</v>
       </c>
       <c r="C18">
-        <v>-0.3197769268706349</v>
+        <v>0.1535822801055082</v>
       </c>
       <c r="D18">
-        <v>-0.1989493619021837</v>
+        <v>-0.9598196832704207</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -754,19 +745,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.5657016436814907</v>
+        <v>-0.9007618665916181</v>
       </c>
       <c r="C19">
-        <v>-0.404614742980018</v>
+        <v>0.5061772850135383</v>
       </c>
       <c r="D19">
-        <v>0.1518536580951942</v>
+        <v>-1.445046272062869</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -774,13 +765,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.492768606237445</v>
+        <v>-0.6766963887276523</v>
       </c>
       <c r="C20">
-        <v>-0.1681981227491337</v>
+        <v>-0.445109405329325</v>
       </c>
       <c r="D20">
-        <v>-0.001044125924041878</v>
+        <v>0.3633647673690624</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -794,19 +785,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.3678626647733546</v>
+        <v>-0.7114088510362506</v>
       </c>
       <c r="C21">
-        <v>-0.4529795446233478</v>
+        <v>0.1258428542579714</v>
       </c>
       <c r="D21">
-        <v>-0.01547199337405322</v>
+        <v>-1.031920302119592</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -814,19 +805,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.4633786429089233</v>
+        <v>-0.6537788664679991</v>
       </c>
       <c r="C22">
-        <v>-0.4142877028018938</v>
+        <v>0.2952757049397343</v>
       </c>
       <c r="D22">
-        <v>0.02965496885573093</v>
+        <v>-1.239504518562477</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -834,19 +825,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.627321315625064</v>
+        <v>-0.8714879021830555</v>
       </c>
       <c r="C23">
-        <v>-0.3469498277869355</v>
+        <v>0.05695987066152974</v>
       </c>
       <c r="D23">
-        <v>0.1153531448506862</v>
+        <v>-0.3629203219404167</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -854,19 +845,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.4765602540596656</v>
+        <v>-0.5073114275491145</v>
       </c>
       <c r="C24">
-        <v>-0.3239573460190756</v>
+        <v>0.174547389995332</v>
       </c>
       <c r="D24">
-        <v>-0.1129687277298796</v>
+        <v>-0.8279246394149724</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -874,13 +865,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.7798901792558098</v>
+        <v>-0.975969086278109</v>
       </c>
       <c r="C25">
-        <v>-0.4272800463318244</v>
+        <v>-0.1699929514179769</v>
       </c>
       <c r="D25">
-        <v>0.3949551191231774</v>
+        <v>0.1917233958054022</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -894,19 +885,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.422815706604399</v>
+        <v>-0.5945385106770413</v>
       </c>
       <c r="C26">
-        <v>-0.4579668213658388</v>
+        <v>0.1677569620815935</v>
       </c>
       <c r="D26">
-        <v>-0.004890326579640947</v>
+        <v>-1.13625918141017</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -914,19 +905,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.6162550462291363</v>
+        <v>-0.8997816496011912</v>
       </c>
       <c r="C27">
-        <v>-0.3377607950016491</v>
+        <v>0.1708498425320213</v>
       </c>
       <c r="D27">
-        <v>0.140478277784894</v>
+        <v>-0.4156504479050714</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -934,13 +925,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.2022215270997453</v>
+        <v>0.0413825411924183</v>
       </c>
       <c r="C28">
-        <v>-0.3380297413845227</v>
+        <v>-0.06292238638449932</v>
       </c>
       <c r="D28">
-        <v>-0.3184474079148657</v>
+        <v>-1.1428651614033</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -954,19 +945,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.1754619553892534</v>
+        <v>-0.1666782926092248</v>
       </c>
       <c r="C29">
-        <v>-0.495524628776315</v>
+        <v>-0.1561098574186841</v>
       </c>
       <c r="D29">
-        <v>-0.207124460582625</v>
+        <v>-1.147891507244508</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -974,19 +965,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.3908800640255742</v>
+        <v>-0.5321672655668539</v>
       </c>
       <c r="C30">
-        <v>-0.3910652664016925</v>
+        <v>0.1876958884848355</v>
       </c>
       <c r="D30">
-        <v>-0.02635679668670123</v>
+        <v>-1.046028607918607</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -994,19 +985,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.3759397519936915</v>
+        <v>-0.4271507501865911</v>
       </c>
       <c r="C31">
-        <v>-0.5106098944631372</v>
+        <v>-0.06036065362398346</v>
       </c>
       <c r="D31">
-        <v>0.06934241122252752</v>
+        <v>-0.8142000974645178</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1014,19 +1005,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.5431908977886875</v>
+        <v>-0.8131567587867449</v>
       </c>
       <c r="C32">
-        <v>-0.3630117117363095</v>
+        <v>0.2747847969126016</v>
       </c>
       <c r="D32">
-        <v>0.1035469342728355</v>
+        <v>-0.8383761139213186</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1034,19 +1025,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.5649411787429138</v>
+        <v>-0.5781769539119321</v>
       </c>
       <c r="C33">
-        <v>-0.3801074711009889</v>
+        <v>0.4201134244444985</v>
       </c>
       <c r="D33">
-        <v>0.03279261535647884</v>
+        <v>-1.349087026304467</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1054,19 +1045,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.453036989975115</v>
+        <v>-0.5717387712961735</v>
       </c>
       <c r="C34">
-        <v>-0.3966003516832172</v>
+        <v>0.2122937026325524</v>
       </c>
       <c r="D34">
-        <v>0.08936885114571533</v>
+        <v>-1.126847947013139</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1074,19 +1065,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.5608959765131872</v>
+        <v>12.08702082720131</v>
       </c>
       <c r="C35">
-        <v>0.09335852185221238</v>
+        <v>-1.824959302050136</v>
       </c>
       <c r="D35">
-        <v>0.05787582187245369</v>
+        <v>-7.040741200956586</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1094,19 +1085,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-1.175524322282974</v>
+        <v>4.853829144628778</v>
       </c>
       <c r="C36">
-        <v>0.1264707539342201</v>
+        <v>-0.740275409932398</v>
       </c>
       <c r="D36">
-        <v>0.1423779438350831</v>
+        <v>-3.551341243505375</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1114,13 +1105,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.07147952910619951</v>
+        <v>0.7956680005582575</v>
       </c>
       <c r="C37">
-        <v>-0.4852334176110884</v>
+        <v>-0.6936968667448207</v>
       </c>
       <c r="D37">
-        <v>-0.5522962705185311</v>
+        <v>-1.34565132823248</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1134,19 +1125,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.07056098366916805</v>
+        <v>0.04890573606573229</v>
       </c>
       <c r="C38">
-        <v>-0.325144569421343</v>
+        <v>0.0886281380154379</v>
       </c>
       <c r="D38">
-        <v>-0.4122804199586974</v>
+        <v>-1.629355390334033</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1154,13 +1145,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.1028045593324403</v>
+        <v>0.1193755568215696</v>
       </c>
       <c r="C39">
-        <v>-0.4001577848991329</v>
+        <v>0.09275176468121415</v>
       </c>
       <c r="D39">
-        <v>-0.3982169913601102</v>
+        <v>-1.958788833657051</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1174,19 +1165,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.1021119287044853</v>
+        <v>-0.1306659463032639</v>
       </c>
       <c r="C40">
-        <v>-0.3436937792573306</v>
+        <v>0.079573743477792</v>
       </c>
       <c r="D40">
-        <v>-0.3774931385325526</v>
+        <v>-1.200828460250832</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1194,13 +1185,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.004518900383784191</v>
+        <v>0.2118772924382793</v>
       </c>
       <c r="C41">
-        <v>-0.5100269543220788</v>
+        <v>0.06907593458724037</v>
       </c>
       <c r="D41">
-        <v>-0.3834663795027474</v>
+        <v>-2.042414655603022</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1214,13 +1205,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.131927463757853</v>
+        <v>0.1849127231521162</v>
       </c>
       <c r="C42">
-        <v>-0.3470917382685905</v>
+        <v>0.1030511061930079</v>
       </c>
       <c r="D42">
-        <v>-0.4281601879790096</v>
+        <v>-1.638468599035498</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1234,19 +1225,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.3847273276218223</v>
+        <v>0.09438596026795093</v>
       </c>
       <c r="C43">
-        <v>-0.2777467863010535</v>
+        <v>-0.2919543342554446</v>
       </c>
       <c r="D43">
-        <v>-0.4219031928327632</v>
+        <v>-1.201790541373946</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1254,19 +1245,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.1318650013012991</v>
+        <v>-0.1068996687481348</v>
       </c>
       <c r="C44">
-        <v>-0.3186896780425081</v>
+        <v>0.1911255998803539</v>
       </c>
       <c r="D44">
-        <v>-0.4095655158862151</v>
+        <v>-1.479475202286191</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1274,19 +1265,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.08433435921818727</v>
+        <v>-0.00724720003040491</v>
       </c>
       <c r="C45">
-        <v>-0.3666267258793617</v>
+        <v>0.175003964168034</v>
       </c>
       <c r="D45">
-        <v>-0.3872875401887075</v>
+        <v>-1.631681500418059</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1294,19 +1285,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.04291420164914975</v>
+        <v>-0.05653761692234971</v>
       </c>
       <c r="C46">
-        <v>-0.4380244241658821</v>
+        <v>0.1027264200690082</v>
       </c>
       <c r="D46">
-        <v>-0.3908922807953987</v>
+        <v>-1.585376581736134</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1314,13 +1305,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.3297165923216844</v>
+        <v>1.179806170535386</v>
       </c>
       <c r="C47">
-        <v>-0.5131441341258338</v>
+        <v>-0.5443873083056131</v>
       </c>
       <c r="D47">
-        <v>-0.8974203844213448</v>
+        <v>-2.164829887925958</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1334,13 +1325,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.1735196840554506</v>
+        <v>0.9427036359337098</v>
       </c>
       <c r="C48">
-        <v>-0.3379437307124363</v>
+        <v>-0.4461857184406408</v>
       </c>
       <c r="D48">
-        <v>-0.8906864157989781</v>
+        <v>-1.973795922604691</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1354,13 +1345,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.1323042821180381</v>
+        <v>0.3281291564729346</v>
       </c>
       <c r="C49">
-        <v>-0.4271028273722022</v>
+        <v>-0.2517818849216909</v>
       </c>
       <c r="D49">
-        <v>-0.3729952359597399</v>
+        <v>-1.311789303324984</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1374,13 +1365,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.00444920684512419</v>
+        <v>0.2568119529493351</v>
       </c>
       <c r="C50">
-        <v>-0.3824786132292355</v>
+        <v>0.09639379845946572</v>
       </c>
       <c r="D50">
-        <v>-0.5376701543622996</v>
+        <v>-2.03300327870808</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1394,19 +1385,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.2613860121612491</v>
+        <v>-0.04880178149212711</v>
       </c>
       <c r="C51">
-        <v>-0.4226090401211803</v>
+        <v>-0.05910970920376624</v>
       </c>
       <c r="D51">
-        <v>-0.2140732353411334</v>
+        <v>-1.187171952132741</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1414,13 +1405,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.07956488004836405</v>
+        <v>0.2752499795109373</v>
       </c>
       <c r="C52">
-        <v>-0.492726875014772</v>
+        <v>-0.3523091512953744</v>
       </c>
       <c r="D52">
-        <v>-0.2852197428919684</v>
+        <v>-1.14879971531881</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1434,19 +1425,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.1449197714590454</v>
+        <v>0.121377305093142</v>
       </c>
       <c r="C53">
-        <v>-0.3037928629973747</v>
+        <v>0.2921070061038752</v>
       </c>
       <c r="D53">
-        <v>-0.4620473102141724</v>
+        <v>-1.870622163172452</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1454,19 +1445,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.200251518354299</v>
+        <v>-0.3715058810078847</v>
       </c>
       <c r="C54">
-        <v>-0.2960698995992639</v>
+        <v>0.364412736207861</v>
       </c>
       <c r="D54">
-        <v>-0.3297177456928568</v>
+        <v>-1.388679621820345</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1474,13 +1465,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.1813816001401543</v>
+        <v>0.4400790458021366</v>
       </c>
       <c r="C55">
-        <v>-0.4132645053368011</v>
+        <v>-0.5347519279479471</v>
       </c>
       <c r="D55">
-        <v>-0.756924365413195</v>
+        <v>-1.268741171423777</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1494,19 +1485,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.1844017996641379</v>
+        <v>0.02523068568003656</v>
       </c>
       <c r="C56">
-        <v>-0.3882906375545708</v>
+        <v>0.098599510382127</v>
       </c>
       <c r="D56">
-        <v>-0.3856553399049859</v>
+        <v>-1.702793192277038</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1514,19 +1505,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.1544172026957034</v>
+        <v>-0.04517807008706204</v>
       </c>
       <c r="C57">
-        <v>-0.3616955585114934</v>
+        <v>0.156855281786322</v>
       </c>
       <c r="D57">
-        <v>-0.3460600663394539</v>
+        <v>-1.607014973098818</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1534,13 +1525,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.009765889718802434</v>
+        <v>0.2198237861592144</v>
       </c>
       <c r="C58">
-        <v>-0.4299842654535753</v>
+        <v>-0.002487624190534832</v>
       </c>
       <c r="D58">
-        <v>-0.4439565258553996</v>
+        <v>-1.782456586605888</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1554,13 +1545,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.2680861165795218</v>
+        <v>-0.2102209218423138</v>
       </c>
       <c r="C59">
-        <v>-0.2543144277494218</v>
+        <v>0.2764665689589185</v>
       </c>
       <c r="D59">
-        <v>-0.3370013797684502</v>
+        <v>-1.50333467104515</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -1574,13 +1565,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.1043697123562036</v>
+        <v>0.22792744302211</v>
       </c>
       <c r="C60">
-        <v>-0.372563150566885</v>
+        <v>-0.03734268077768843</v>
       </c>
       <c r="D60">
-        <v>-0.5003509687742117</v>
+        <v>-1.590805056132713</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -1594,19 +1585,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.2482589631540095</v>
+        <v>-0.1211739682778995</v>
       </c>
       <c r="C61">
-        <v>-0.3404607376932348</v>
+        <v>0.2150413443420619</v>
       </c>
       <c r="D61">
-        <v>-0.2548090090690791</v>
+        <v>-1.575782644636532</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1614,19 +1605,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.231560032063161</v>
+        <v>-0.06447246970923837</v>
       </c>
       <c r="C62">
-        <v>-0.3373164000918925</v>
+        <v>0.1480382727740363</v>
       </c>
       <c r="D62">
-        <v>-0.3437701815773446</v>
+        <v>-1.461682111850007</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1634,13 +1625,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.01330485861553218</v>
+        <v>0.4031938183052353</v>
       </c>
       <c r="C63">
-        <v>-0.4121480885861343</v>
+        <v>0.1836760941764142</v>
       </c>
       <c r="D63">
-        <v>-0.5252489848065299</v>
+        <v>-2.246813933125077</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1654,13 +1645,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.2913775078899539</v>
+        <v>-0.4653134185350299</v>
       </c>
       <c r="C64">
-        <v>-0.2337140173413809</v>
+        <v>0.136280172335333</v>
       </c>
       <c r="D64">
-        <v>-0.4398928140467846</v>
+        <v>-0.9239539925956437</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -1674,19 +1665,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.1348454851468257</v>
+        <v>-0.4784328726405036</v>
       </c>
       <c r="C65">
-        <v>-0.2489933489211213</v>
+        <v>-0.6726082426006206</v>
       </c>
       <c r="D65">
-        <v>-0.1628540273895898</v>
+        <v>0.2366257716671774</v>
       </c>
       <c r="E65">
         <v>2</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1694,19 +1685,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.1206646578871301</v>
+        <v>-0.4872094485636034</v>
       </c>
       <c r="C66">
-        <v>-0.2439476607232651</v>
+        <v>-0.6301529594499123</v>
       </c>
       <c r="D66">
-        <v>-0.1395121338150068</v>
+        <v>0.252360483172775</v>
       </c>
       <c r="E66">
         <v>2</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1714,19 +1705,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.1206646578871301</v>
+        <v>-0.4872094485636034</v>
       </c>
       <c r="C67">
-        <v>-0.2439476607232651</v>
+        <v>-0.6301529594499123</v>
       </c>
       <c r="D67">
-        <v>-0.1395121338150068</v>
+        <v>0.252360483172775</v>
       </c>
       <c r="E67">
         <v>2</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1734,19 +1725,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.2396007195847337</v>
+        <v>3.158115365357689</v>
       </c>
       <c r="C68">
-        <v>-0.3165601739458913</v>
+        <v>-0.006303040854091946</v>
       </c>
       <c r="D68">
-        <v>0.2832982586593192</v>
+        <v>-2.608539918805724</v>
       </c>
       <c r="E68">
         <v>2</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1754,13 +1745,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.3842713869401438</v>
+        <v>-0.4902374576956946</v>
       </c>
       <c r="C69">
-        <v>-0.2041021489821866</v>
+        <v>0.2197698573542404</v>
       </c>
       <c r="D69">
-        <v>-0.4185674053063032</v>
+        <v>-1.110511480706023</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -1774,19 +1765,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.2569085295356912</v>
+        <v>-0.3519663956319004</v>
       </c>
       <c r="C70">
-        <v>-0.2840523371400112</v>
+        <v>0.3924500335847337</v>
       </c>
       <c r="D70">
-        <v>-0.5521771479659608</v>
+        <v>-1.560138640688521</v>
       </c>
       <c r="E70">
         <v>2</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1794,13 +1785,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.3666332855442361</v>
+        <v>-0.5087721412872654</v>
       </c>
       <c r="C71">
-        <v>-0.2845092067024054</v>
+        <v>0.2864507087300221</v>
       </c>
       <c r="D71">
-        <v>-0.4182007768248337</v>
+        <v>-1.312439248151212</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -1814,13 +1805,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.07157317146977246</v>
+        <v>-0.1036801917145277</v>
       </c>
       <c r="C72">
-        <v>-0.5289606733996326</v>
+        <v>-0.420311534191305</v>
       </c>
       <c r="D72">
-        <v>-0.3623580560342116</v>
+        <v>-0.8293744949570157</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -1834,13 +1825,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.3096634171322648</v>
+        <v>-0.3772691109271512</v>
       </c>
       <c r="C73">
-        <v>-0.2883512313034481</v>
+        <v>0.237395994132986</v>
       </c>
       <c r="D73">
-        <v>-0.4837592263162036</v>
+        <v>-1.403426489769165</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -1854,13 +1845,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.2341868990872218</v>
+        <v>-0.2176369751101831</v>
       </c>
       <c r="C74">
-        <v>-0.1940904836754938</v>
+        <v>0.1924591580664189</v>
       </c>
       <c r="D74">
-        <v>-0.53881203675875</v>
+        <v>-1.151532026981716</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -1874,13 +1865,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.1574718157795609</v>
+        <v>0.2994195046763725</v>
       </c>
       <c r="C75">
-        <v>-0.4178970617478244</v>
+        <v>-0.07498231854803616</v>
       </c>
       <c r="D75">
-        <v>-0.4575647627258559</v>
+        <v>-1.58905183596791</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -1894,13 +1885,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.2407918542846789</v>
+        <v>-0.009952151126700559</v>
       </c>
       <c r="C76">
-        <v>-0.3823240395698234</v>
+        <v>-0.3194076087777973</v>
       </c>
       <c r="D76">
-        <v>-0.2466019594173725</v>
+        <v>-0.7827299432876726</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -1914,19 +1905,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.2444487268211126</v>
+        <v>-0.1802496093452577</v>
       </c>
       <c r="C77">
-        <v>-0.3347363754056495</v>
+        <v>-0.07264272362527036</v>
       </c>
       <c r="D77">
-        <v>-0.4143796639150205</v>
+        <v>-1.161094042869382</v>
       </c>
       <c r="E77">
         <v>2</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1934,13 +1925,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.2126779996181212</v>
+        <v>-0.4195207675167558</v>
       </c>
       <c r="C78">
-        <v>-0.3273334793065427</v>
+        <v>-0.5417360959383689</v>
       </c>
       <c r="D78">
-        <v>-0.1527317754701526</v>
+        <v>-0.06704092250554977</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -1954,13 +1945,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.4346117240765965</v>
+        <v>-0.1564684662479085</v>
       </c>
       <c r="C79">
-        <v>-0.3180739050181448</v>
+        <v>0.05613097705505932</v>
       </c>
       <c r="D79">
-        <v>-0.3449562271167359</v>
+        <v>-1.290888030013455</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -1974,19 +1965,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.2778853271156015</v>
+        <v>-0.1529350798202285</v>
       </c>
       <c r="C80">
-        <v>-0.3052175967832781</v>
+        <v>0.04300378101955193</v>
       </c>
       <c r="D80">
-        <v>-0.4429780699171514</v>
+        <v>-1.305137235258732</v>
       </c>
       <c r="E80">
         <v>2</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1994,13 +1985,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.269844745216432</v>
+        <v>-0.1182065939705915</v>
       </c>
       <c r="C81">
-        <v>-0.1591394611238469</v>
+        <v>0.2481567682822187</v>
       </c>
       <c r="D81">
-        <v>-0.6252908802674234</v>
+        <v>-1.412800341125185</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -2014,13 +2005,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.3705632361283546</v>
+        <v>-0.580517791338268</v>
       </c>
       <c r="C82">
-        <v>-0.3689131700589306</v>
+        <v>0.3106651414247923</v>
       </c>
       <c r="D82">
-        <v>-0.4320282705173719</v>
+        <v>-1.168934459035641</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -2034,13 +2025,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.2228609695644504</v>
+        <v>-0.4564095044397154</v>
       </c>
       <c r="C83">
-        <v>-0.203638091958839</v>
+        <v>0.3846501754106303</v>
       </c>
       <c r="D83">
-        <v>-0.6141607768852972</v>
+        <v>-1.226355563611692</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -2054,13 +2045,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.317204166885426</v>
+        <v>-0.3044621235250166</v>
       </c>
       <c r="C84">
-        <v>-0.2259811878739531</v>
+        <v>0.147187272144193</v>
       </c>
       <c r="D84">
-        <v>-0.4097535282013552</v>
+        <v>-1.241395901211917</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -2074,13 +2065,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.2281467254094223</v>
+        <v>-0.2474700356294538</v>
       </c>
       <c r="C85">
-        <v>-0.220837032241163</v>
+        <v>0.1301847561989302</v>
       </c>
       <c r="D85">
-        <v>-0.5032228348337869</v>
+        <v>-1.103772947286041</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -2094,19 +2085,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.6924808524859473</v>
+        <v>-0.6834626731863467</v>
       </c>
       <c r="C86">
-        <v>-0.278629530528129</v>
+        <v>-0.22374446484688</v>
       </c>
       <c r="D86">
-        <v>-0.02656520833217724</v>
+        <v>-0.4831719391318771</v>
       </c>
       <c r="E86">
         <v>2</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2114,19 +2105,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.259894261062421</v>
+        <v>-0.119554296095919</v>
       </c>
       <c r="C87">
-        <v>-0.3055847478759529</v>
+        <v>-0.08018767301820418</v>
       </c>
       <c r="D87">
-        <v>-0.3861852761329291</v>
+        <v>-0.9619215584789551</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2134,13 +2125,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.121766880074386</v>
+        <v>0.4826163488502803</v>
       </c>
       <c r="C88">
-        <v>-0.403375605215157</v>
+        <v>-0.5249375282915573</v>
       </c>
       <c r="D88">
-        <v>-0.424046438124117</v>
+        <v>-1.158189655325193</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -2154,19 +2145,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.198471892018778</v>
+        <v>-0.1711083047325267</v>
       </c>
       <c r="C89">
-        <v>-0.2974836531078814</v>
+        <v>-0.0141400888865082</v>
       </c>
       <c r="D89">
-        <v>-0.4067546805294679</v>
+        <v>-0.999521831668565</v>
       </c>
       <c r="E89">
         <v>2</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2174,13 +2165,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.5066545327454619</v>
+        <v>-0.4627673780041521</v>
       </c>
       <c r="C90">
-        <v>-0.1533160715443783</v>
+        <v>-0.01939794877573842</v>
       </c>
       <c r="D90">
-        <v>-0.2366907192450464</v>
+        <v>-0.7234618095532128</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -2194,19 +2185,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.1206646578871301</v>
+        <v>-0.4872094485636034</v>
       </c>
       <c r="C91">
-        <v>-0.2439476607232651</v>
+        <v>-0.6301529594499123</v>
       </c>
       <c r="D91">
-        <v>-0.1395121338150068</v>
+        <v>0.252360483172775</v>
       </c>
       <c r="E91">
         <v>2</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2214,19 +2205,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.7727268640397792</v>
+        <v>-1.389951004469154</v>
       </c>
       <c r="C92">
-        <v>-0.326406110673316</v>
+        <v>0.2282301264576088</v>
       </c>
       <c r="D92">
-        <v>-0.2685667089495624</v>
+        <v>-1.758305982267482</v>
       </c>
       <c r="E92">
         <v>2</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2234,13 +2225,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.4073962584671682</v>
+        <v>-0.2708710375921921</v>
       </c>
       <c r="C93">
-        <v>-0.2346172609018828</v>
+        <v>-0.04242631062987401</v>
       </c>
       <c r="D93">
-        <v>-0.2978110566319125</v>
+        <v>-1.012853958706685</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -2254,19 +2245,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.2409110806287726</v>
+        <v>-0.1527775602563128</v>
       </c>
       <c r="C94">
-        <v>-0.2892154973285357</v>
+        <v>0.04061125944526167</v>
       </c>
       <c r="D94">
-        <v>-0.4335835972125226</v>
+        <v>-1.353435541766971</v>
       </c>
       <c r="E94">
         <v>2</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2274,13 +2265,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.2698034661133922</v>
+        <v>-0.6879413091031303</v>
       </c>
       <c r="C95">
-        <v>-0.2607986702449995</v>
+        <v>0.2269361971048194</v>
       </c>
       <c r="D95">
-        <v>-0.5196198431448701</v>
+        <v>-0.9709610256802583</v>
       </c>
       <c r="E95">
         <v>3</v>
@@ -2294,19 +2285,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.2718569379819623</v>
+        <v>-0.6302114594809343</v>
       </c>
       <c r="C96">
-        <v>-0.2931168425237721</v>
+        <v>0.2298029351756878</v>
       </c>
       <c r="D96">
-        <v>-0.4658383357041183</v>
+        <v>-0.9965680417446179</v>
       </c>
       <c r="E96">
         <v>3</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2314,19 +2305,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.6792011443014153</v>
+        <v>3.884553308789374</v>
       </c>
       <c r="C97">
-        <v>-0.3596000581606702</v>
+        <v>0.2003168908893501</v>
       </c>
       <c r="D97">
-        <v>0.22787505021115</v>
+        <v>-4.029749069400171</v>
       </c>
       <c r="E97">
         <v>3</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2334,19 +2325,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.1975136420716091</v>
+        <v>-0.660494201628725</v>
       </c>
       <c r="C98">
-        <v>-0.3864611493151272</v>
+        <v>-0.1300096454408629</v>
       </c>
       <c r="D98">
-        <v>-0.4694594224416165</v>
+        <v>-0.8154413884170726</v>
       </c>
       <c r="E98">
         <v>3</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2354,19 +2345,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.3623328489406987</v>
+        <v>10.02681394779606</v>
       </c>
       <c r="C99">
-        <v>-0.3397873007963363</v>
+        <v>0.2388690856957263</v>
       </c>
       <c r="D99">
-        <v>0.6736972053548298</v>
+        <v>-7.055601038009808</v>
       </c>
       <c r="E99">
         <v>3</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2374,19 +2365,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-1.184422673426776</v>
+        <v>2.92882219779676</v>
       </c>
       <c r="C100">
-        <v>-0.2537206492870959</v>
+        <v>0.7248323070928121</v>
       </c>
       <c r="D100">
-        <v>0.5404486652336855</v>
+        <v>-4.059759443192005</v>
       </c>
       <c r="E100">
         <v>3</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2394,13 +2385,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.419293451564397</v>
+        <v>-1.619050173543055</v>
       </c>
       <c r="C101">
-        <v>-0.3074557197890266</v>
+        <v>0.1491325135372732</v>
       </c>
       <c r="D101">
-        <v>-0.4951782187988233</v>
+        <v>-1.085396329327884</v>
       </c>
       <c r="E101">
         <v>3</v>
@@ -2414,19 +2405,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.06120859197629444</v>
+        <v>9.598015558448553</v>
       </c>
       <c r="C102">
-        <v>-0.2983472156840129</v>
+        <v>0.918831237063272</v>
       </c>
       <c r="D102">
-        <v>0.2242862219593741</v>
+        <v>-7.511522063375576</v>
       </c>
       <c r="E102">
         <v>3</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2434,19 +2425,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.04681935475703694</v>
+        <v>-0.1570416509946728</v>
       </c>
       <c r="C103">
-        <v>-0.1699714841911822</v>
+        <v>-0.0315868725199091</v>
       </c>
       <c r="D103">
-        <v>-0.80518932531092</v>
+        <v>-1.078472111199944</v>
       </c>
       <c r="E103">
         <v>3</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2454,19 +2445,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.08451042988522101</v>
+        <v>-0.4755555847608015</v>
       </c>
       <c r="C104">
-        <v>-0.3552652508781651</v>
+        <v>0.008125065160045186</v>
       </c>
       <c r="D104">
-        <v>-0.6358046443946654</v>
+        <v>-0.8267763270293187</v>
       </c>
       <c r="E104">
         <v>3</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2474,19 +2465,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-0.5679837299581274</v>
+        <v>-1.79358006813366</v>
       </c>
       <c r="C105">
-        <v>-0.3758330047483471</v>
+        <v>0.3424820222442607</v>
       </c>
       <c r="D105">
-        <v>-0.3344523520483149</v>
+        <v>-1.101203892348762</v>
       </c>
       <c r="E105">
         <v>3</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2494,19 +2485,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.2497976432391808</v>
+        <v>7.442132492395483</v>
       </c>
       <c r="C106">
-        <v>-0.3645273412229573</v>
+        <v>0.3185950523532128</v>
       </c>
       <c r="D106">
-        <v>0.4110984916167553</v>
+        <v>-5.606673382407279</v>
       </c>
       <c r="E106">
         <v>3</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2514,13 +2505,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.1602601262625938</v>
+        <v>-0.3374986379026214</v>
       </c>
       <c r="C107">
-        <v>-0.465288139648136</v>
+        <v>-0.4106782469449473</v>
       </c>
       <c r="D107">
-        <v>-0.2764715847677613</v>
+        <v>-0.4007976081017119</v>
       </c>
       <c r="E107">
         <v>3</v>
@@ -2534,19 +2525,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.6020630329920611</v>
+        <v>-0.7938503933409873</v>
       </c>
       <c r="C108">
-        <v>-0.1628370303078868</v>
+        <v>0.1658691765683566</v>
       </c>
       <c r="D108">
-        <v>-0.1089125087372076</v>
+        <v>-0.5132593908739003</v>
       </c>
       <c r="E108">
         <v>3</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2554,19 +2545,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.742682175849273</v>
+        <v>-2.302869790602909</v>
       </c>
       <c r="C109">
-        <v>-0.3089988214935228</v>
+        <v>0.4886019933182059</v>
       </c>
       <c r="D109">
-        <v>-0.2076766673214611</v>
+        <v>-0.7506027354419718</v>
       </c>
       <c r="E109">
         <v>3</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2574,13 +2565,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.4778648317586174</v>
+        <v>-1.451420138597322</v>
       </c>
       <c r="C110">
-        <v>-0.3235529489561161</v>
+        <v>0.4614120064101997</v>
       </c>
       <c r="D110">
-        <v>-0.3403525407264587</v>
+        <v>-1.136763159566263</v>
       </c>
       <c r="E110">
         <v>3</v>
@@ -2594,19 +2585,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.6149837380356022</v>
+        <v>-2.004980541309928</v>
       </c>
       <c r="C111">
-        <v>-0.3433800545340409</v>
+        <v>0.4474289523630285</v>
       </c>
       <c r="D111">
-        <v>-0.2916560813593471</v>
+        <v>-0.8029140387766502</v>
       </c>
       <c r="E111">
         <v>3</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2614,19 +2605,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.5898417910178352</v>
+        <v>-2.018679738673279</v>
       </c>
       <c r="C112">
-        <v>-0.4483671778154246</v>
+        <v>0.2171215247487965</v>
       </c>
       <c r="D112">
-        <v>-0.1744586574369263</v>
+        <v>-0.9109856250953601</v>
       </c>
       <c r="E112">
         <v>3</v>
       </c>
       <c r="F112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2634,13 +2625,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.4637532240723717</v>
+        <v>-1.401283786023462</v>
       </c>
       <c r="C113">
-        <v>-0.336936457232868</v>
+        <v>0.2575970923772142</v>
       </c>
       <c r="D113">
-        <v>-0.3812067173717232</v>
+        <v>-0.9901993163612752</v>
       </c>
       <c r="E113">
         <v>3</v>
@@ -2654,13 +2645,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.1540347501959094</v>
+        <v>0.1919815143948191</v>
       </c>
       <c r="C114">
-        <v>-0.3967085185759945</v>
+        <v>-0.2252825970197201</v>
       </c>
       <c r="D114">
-        <v>-0.766857078074866</v>
+        <v>-1.149419534427547</v>
       </c>
       <c r="E114">
         <v>3</v>
@@ -2674,19 +2665,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.2466920034601692</v>
+        <v>-0.5111132351048978</v>
       </c>
       <c r="C115">
-        <v>-0.4411218779944162</v>
+        <v>-0.1381357433273556</v>
       </c>
       <c r="D115">
-        <v>-0.3806523006461682</v>
+        <v>-0.8939984638394274</v>
       </c>
       <c r="E115">
         <v>3</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2694,19 +2685,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.7758648304829961</v>
+        <v>-1.484237906060974</v>
       </c>
       <c r="C116">
-        <v>-0.2150112189184419</v>
+        <v>0.3560636931357433</v>
       </c>
       <c r="D116">
-        <v>-0.09664079632711459</v>
+        <v>-0.724426910017248</v>
       </c>
       <c r="E116">
         <v>4</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2714,19 +2705,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.5771972042226948</v>
+        <v>-0.6725632458284375</v>
       </c>
       <c r="C117">
-        <v>-0.4280600032612759</v>
+        <v>0.09806521122411027</v>
       </c>
       <c r="D117">
-        <v>-0.1413355342295924</v>
+        <v>-1.086747160485274</v>
       </c>
       <c r="E117">
         <v>4</v>
       </c>
       <c r="F117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2734,19 +2725,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.5496465831839267</v>
+        <v>-0.9328094515411136</v>
       </c>
       <c r="C118">
-        <v>-0.2128975284798817</v>
+        <v>-0.03075194844753126</v>
       </c>
       <c r="D118">
-        <v>-0.1126713536830838</v>
+        <v>-0.5701568874809422</v>
       </c>
       <c r="E118">
         <v>4</v>
       </c>
       <c r="F118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2754,13 +2745,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.3516357886513656</v>
+        <v>-0.327000226332704</v>
       </c>
       <c r="C119">
-        <v>-0.270525727861692</v>
+        <v>-0.154947595121235</v>
       </c>
       <c r="D119">
-        <v>-0.432441094693797</v>
+        <v>-0.8780302237589539</v>
       </c>
       <c r="E119">
         <v>4</v>
@@ -2774,13 +2765,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.2012230459662539</v>
+        <v>0.1905677053424272</v>
       </c>
       <c r="C120">
-        <v>-0.3111805170870781</v>
+        <v>-0.2201368027022206</v>
       </c>
       <c r="D120">
-        <v>-0.3878178553513915</v>
+        <v>-1.008952537109987</v>
       </c>
       <c r="E120">
         <v>4</v>
@@ -2794,19 +2785,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.5241973213778621</v>
+        <v>-0.9274865755827695</v>
       </c>
       <c r="C121">
-        <v>-0.2463413985205641</v>
+        <v>-0.04504377345673904</v>
       </c>
       <c r="D121">
-        <v>-0.08374894557512377</v>
+        <v>-0.1777064709409897</v>
       </c>
       <c r="E121">
         <v>4</v>
       </c>
       <c r="F121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2814,19 +2805,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.5008969426537309</v>
+        <v>-0.7275850949222746</v>
       </c>
       <c r="C122">
-        <v>-0.4110164775175493</v>
+        <v>-0.08730066741690568</v>
       </c>
       <c r="D122">
-        <v>-0.09381462842217024</v>
+        <v>-0.6088980885221678</v>
       </c>
       <c r="E122">
         <v>4</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2834,13 +2825,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.3953330463139765</v>
+        <v>-0.1722540995528453</v>
       </c>
       <c r="C123">
-        <v>-0.1573379519492581</v>
+        <v>0.4230525321822208</v>
       </c>
       <c r="D123">
-        <v>-0.6035559714676023</v>
+        <v>-1.419275216672598</v>
       </c>
       <c r="E123">
         <v>4</v>
@@ -2854,13 +2845,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.4244778563616257</v>
+        <v>-0.5713758159992048</v>
       </c>
       <c r="C124">
-        <v>-0.2017519525353554</v>
+        <v>0.04109634422839148</v>
       </c>
       <c r="D124">
-        <v>-0.4029610375837704</v>
+        <v>-0.5922138605104601</v>
       </c>
       <c r="E124">
         <v>4</v>
@@ -2874,19 +2865,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.6875883192314609</v>
+        <v>-0.5428991912957304</v>
       </c>
       <c r="C125">
-        <v>-0.3064444570825668</v>
+        <v>0.06577440489376629</v>
       </c>
       <c r="D125">
-        <v>0.01013960477010822</v>
+        <v>-0.5049561422349742</v>
       </c>
       <c r="E125">
         <v>4</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2894,13 +2885,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.07815815698018311</v>
+        <v>0.37621300823633</v>
       </c>
       <c r="C126">
-        <v>-0.2703966984297603</v>
+        <v>0.08199387009873105</v>
       </c>
       <c r="D126">
-        <v>-0.6394061156209585</v>
+        <v>-1.577342698210363</v>
       </c>
       <c r="E126">
         <v>4</v>
@@ -2914,19 +2905,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.6558143063869193</v>
+        <v>-1.174673502243123</v>
       </c>
       <c r="C127">
-        <v>-0.2722509048451781</v>
+        <v>0.1519768029074007</v>
       </c>
       <c r="D127">
-        <v>-0.1651156058193516</v>
+        <v>-1.097021123542436</v>
       </c>
       <c r="E127">
         <v>4</v>
       </c>
       <c r="F127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2934,19 +2925,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-1.078704266158209</v>
+        <v>-1.510169114327808</v>
       </c>
       <c r="C128">
-        <v>-0.151022717107649</v>
+        <v>0.5568902456226413</v>
       </c>
       <c r="D128">
-        <v>-0.02098597339163234</v>
+        <v>-0.9644570108915178</v>
       </c>
       <c r="E128">
         <v>4</v>
       </c>
       <c r="F128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2954,19 +2945,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-1.005229613691415</v>
+        <v>-1.728083155172713</v>
       </c>
       <c r="C129">
-        <v>-0.1409515102231331</v>
+        <v>0.766619705024069</v>
       </c>
       <c r="D129">
-        <v>-0.07219761351740571</v>
+        <v>-1.027377634695598</v>
       </c>
       <c r="E129">
         <v>4</v>
       </c>
       <c r="F129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2974,19 +2965,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-1.147846102356444</v>
+        <v>-2.451953403772714</v>
       </c>
       <c r="C130">
-        <v>-0.2342658084731558</v>
+        <v>0.6157477047626231</v>
       </c>
       <c r="D130">
-        <v>0.1655844797055983</v>
+        <v>-0.8289453546592183</v>
       </c>
       <c r="E130">
         <v>4</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2994,19 +2985,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-1.043312152478595</v>
+        <v>-1.976815143147094</v>
       </c>
       <c r="C131">
-        <v>-0.2509842445803224</v>
+        <v>0.6172054010824727</v>
       </c>
       <c r="D131">
-        <v>0.06093865280894933</v>
+        <v>-0.7065510537635309</v>
       </c>
       <c r="E131">
         <v>4</v>
       </c>
       <c r="F131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3014,19 +3005,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0.5165865308233222</v>
+        <v>-0.9384190665797525</v>
       </c>
       <c r="C132">
-        <v>-0.2110024150450962</v>
+        <v>0.2732982875405807</v>
       </c>
       <c r="D132">
-        <v>-0.2103032927803281</v>
+        <v>-0.6627008232741238</v>
       </c>
       <c r="E132">
         <v>4</v>
       </c>
       <c r="F132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3034,19 +3025,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.4317958102124452</v>
+        <v>-0.8249434565715171</v>
       </c>
       <c r="C133">
-        <v>-0.2618871716560167</v>
+        <v>0.07861265843167631</v>
       </c>
       <c r="D133">
-        <v>-0.1258752401856369</v>
+        <v>-0.7390486861602845</v>
       </c>
       <c r="E133">
         <v>4</v>
       </c>
       <c r="F133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3054,19 +3045,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.3627632612759791</v>
+        <v>-0.3830469084415512</v>
       </c>
       <c r="C134">
-        <v>-0.2960989995153392</v>
+        <v>-0.1296209760580415</v>
       </c>
       <c r="D134">
-        <v>-0.2087322263565757</v>
+        <v>-0.5635402030795704</v>
       </c>
       <c r="E134">
         <v>4</v>
       </c>
       <c r="F134">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3074,13 +3065,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-0.5905601080351569</v>
+        <v>-1.114612039943098</v>
       </c>
       <c r="C135">
-        <v>-0.1876002412891852</v>
+        <v>0.5403332388503014</v>
       </c>
       <c r="D135">
-        <v>-0.2458135590937</v>
+        <v>-1.078179250683125</v>
       </c>
       <c r="E135">
         <v>4</v>
@@ -3094,13 +3085,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>-0.6456846741556509</v>
+        <v>-1.575926133598152</v>
       </c>
       <c r="C136">
-        <v>-0.2037911354099327</v>
+        <v>0.4928461511093626</v>
       </c>
       <c r="D136">
-        <v>-0.2218221128048314</v>
+        <v>-0.5277649552169359</v>
       </c>
       <c r="E136">
         <v>4</v>
@@ -3114,19 +3105,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.3830032901704997</v>
+        <v>-0.5997991263099537</v>
       </c>
       <c r="C137">
-        <v>-0.3411507050851255</v>
+        <v>0.1553655748481158</v>
       </c>
       <c r="D137">
-        <v>-0.2652742771485191</v>
+        <v>-0.8650651070582234</v>
       </c>
       <c r="E137">
         <v>4</v>
       </c>
       <c r="F137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3134,19 +3125,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.9156263892001723</v>
+        <v>-2.018175798588796</v>
       </c>
       <c r="C138">
-        <v>-0.118950803381171</v>
+        <v>0.7560581654159918</v>
       </c>
       <c r="D138">
-        <v>-0.09739007901611016</v>
+        <v>-0.7371961465606733</v>
       </c>
       <c r="E138">
         <v>4</v>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3154,19 +3145,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>-1.062032118422956</v>
+        <v>-1.939296070223559</v>
       </c>
       <c r="C139">
-        <v>-0.1558078388356189</v>
+        <v>0.7634440455069863</v>
       </c>
       <c r="D139">
-        <v>-0.01340339333601825</v>
+        <v>-0.9394078578974201</v>
       </c>
       <c r="E139">
         <v>4</v>
       </c>
       <c r="F139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3174,19 +3165,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-0.6604882189637413</v>
+        <v>-1.318554755645649</v>
       </c>
       <c r="C140">
-        <v>-0.229519514151109</v>
+        <v>0.08065340931630438</v>
       </c>
       <c r="D140">
-        <v>0.01135926503569182</v>
+        <v>-0.08679969642916013</v>
       </c>
       <c r="E140">
         <v>4</v>
       </c>
       <c r="F140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3194,13 +3185,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-0.759070632506973</v>
+        <v>-1.607422617594612</v>
       </c>
       <c r="C141">
-        <v>-0.1328937069670264</v>
+        <v>0.1543540059632071</v>
       </c>
       <c r="D141">
-        <v>0.03574957543015234</v>
+        <v>0.4010372090883823</v>
       </c>
       <c r="E141">
         <v>4</v>
@@ -3214,13 +3205,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.07006261236863409</v>
+        <v>0.1894548136916773</v>
       </c>
       <c r="C142">
-        <v>-0.2430208014576627</v>
+        <v>-0.4897935903670544</v>
       </c>
       <c r="D142">
-        <v>-0.541927504102467</v>
+        <v>-0.7240983911616832</v>
       </c>
       <c r="E142">
         <v>4</v>
@@ -3234,13 +3225,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.3983247196481374</v>
+        <v>-0.5832494706322591</v>
       </c>
       <c r="C143">
-        <v>-0.1918286434187241</v>
+        <v>-0.01047188924529308</v>
       </c>
       <c r="D143">
-        <v>-0.2200298852850818</v>
+        <v>-0.2548415743103011</v>
       </c>
       <c r="E143">
         <v>4</v>
@@ -3254,13 +3245,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.5525358902800315</v>
+        <v>-0.8590282606396864</v>
       </c>
       <c r="C144">
-        <v>-0.1878133980674542</v>
+        <v>0.5358055239894571</v>
       </c>
       <c r="D144">
-        <v>-0.3811318662914235</v>
+        <v>-0.9883544252350804</v>
       </c>
       <c r="E144">
         <v>4</v>
@@ -3274,13 +3265,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-0.4166879789037331</v>
+        <v>-0.6029584032903033</v>
       </c>
       <c r="C145">
-        <v>-0.1500591232377717</v>
+        <v>0.4411871646453865</v>
       </c>
       <c r="D145">
-        <v>-0.5785143144076008</v>
+        <v>-1.193869832846832</v>
       </c>
       <c r="E145">
         <v>4</v>
@@ -3294,19 +3285,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.09208449256984359</v>
+        <v>0.1085300063969191</v>
       </c>
       <c r="C146">
-        <v>-0.1472698119854176</v>
+        <v>0.6577722682958834</v>
       </c>
       <c r="D146">
-        <v>-0.9178189435139434</v>
+        <v>-1.732821178723412</v>
       </c>
       <c r="E146">
         <v>4</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3314,13 +3305,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-0.2284621184591413</v>
+        <v>0.1205138945680959</v>
       </c>
       <c r="C147">
-        <v>-0.2437740555441901</v>
+        <v>0.0629456695265076</v>
       </c>
       <c r="D147">
-        <v>-0.6286084020715732</v>
+        <v>-1.23859527805347</v>
       </c>
       <c r="E147">
         <v>4</v>
@@ -3334,19 +3325,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.5078276615396322</v>
+        <v>-0.9029578194671426</v>
       </c>
       <c r="C148">
-        <v>-0.3019075632314222</v>
+        <v>0.08557737520281439</v>
       </c>
       <c r="D148">
-        <v>-0.09770992577980794</v>
+        <v>-0.3891255638069817</v>
       </c>
       <c r="E148">
         <v>4</v>
       </c>
       <c r="F148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3354,19 +3345,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.1429878056072192</v>
+        <v>-0.03538804470603152</v>
       </c>
       <c r="C149">
-        <v>-0.2893771874820175</v>
+        <v>0.09066446174457454</v>
       </c>
       <c r="D149">
-        <v>-0.5839191705266158</v>
+        <v>-1.178084973422039</v>
       </c>
       <c r="E149">
         <v>4</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3374,19 +3365,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-1.023749979099891</v>
+        <v>-0.9697640213764162</v>
       </c>
       <c r="C150">
-        <v>-0.437816149422246</v>
+        <v>0.2387479635526675</v>
       </c>
       <c r="D150">
-        <v>0.1461636666044755</v>
+        <v>-0.8421475274769996</v>
       </c>
       <c r="E150">
         <v>4</v>
       </c>
       <c r="F150">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3394,13 +3385,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>-0.730627955039878</v>
+        <v>-1.339366828979111</v>
       </c>
       <c r="C151">
-        <v>-0.03393801026963758</v>
+        <v>0.6787666139557976</v>
       </c>
       <c r="D151">
-        <v>-0.2877351076087626</v>
+        <v>-1.051328416784611</v>
       </c>
       <c r="E151">
         <v>4</v>
@@ -3414,19 +3405,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-0.3770547834272779</v>
+        <v>-0.6851073697997315</v>
       </c>
       <c r="C152">
-        <v>-0.3271627496666472</v>
+        <v>-0.06967857781595377</v>
       </c>
       <c r="D152">
-        <v>-0.2169955792675692</v>
+        <v>-0.334371701831751</v>
       </c>
       <c r="E152">
         <v>4</v>
       </c>
       <c r="F152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3434,19 +3425,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-0.8667916470092263</v>
+        <v>-1.61637699607755</v>
       </c>
       <c r="C153">
-        <v>-0.1512023966185807</v>
+        <v>0.4553471169583362</v>
       </c>
       <c r="D153">
-        <v>-0.04876266537682152</v>
+        <v>-0.3394313219817285</v>
       </c>
       <c r="E153">
         <v>4</v>
       </c>
       <c r="F153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3454,13 +3445,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.2605767024038672</v>
+        <v>-0.2324318468121526</v>
       </c>
       <c r="C154">
-        <v>-0.1858910539296044</v>
+        <v>0.3326170927905699</v>
       </c>
       <c r="D154">
-        <v>-0.6832012191496091</v>
+        <v>-1.250002118019025</v>
       </c>
       <c r="E154">
         <v>4</v>
@@ -3474,19 +3465,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-3.888387114783909</v>
+        <v>-1.71507726317049</v>
       </c>
       <c r="C155">
-        <v>-0.8896966893664462</v>
+        <v>3.948461961600289</v>
       </c>
       <c r="D155">
-        <v>3.120255185329216</v>
+        <v>-5.509248166191451</v>
       </c>
       <c r="E155">
         <v>5</v>
       </c>
       <c r="F155">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3494,19 +3485,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-2.879715736229452</v>
+        <v>-1.925736163002174</v>
       </c>
       <c r="C156">
-        <v>-0.9722370364189037</v>
+        <v>4.573779513968883</v>
       </c>
       <c r="D156">
-        <v>2.452767626999828</v>
+        <v>-5.062327675796491</v>
       </c>
       <c r="E156">
         <v>5</v>
       </c>
       <c r="F156">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3514,19 +3505,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-1.10235476959616</v>
+        <v>-0.9205145544466802</v>
       </c>
       <c r="C157">
-        <v>-0.55390825797702</v>
+        <v>1.239287343579879</v>
       </c>
       <c r="D157">
-        <v>0.514080945078457</v>
+        <v>-2.123038695842889</v>
       </c>
       <c r="E157">
         <v>5</v>
       </c>
       <c r="F157">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3534,13 +3525,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.07343329917578328</v>
+        <v>0.2232059181969394</v>
       </c>
       <c r="C158">
-        <v>-0.4158465195162605</v>
+        <v>-0.05967828976988609</v>
       </c>
       <c r="D158">
-        <v>-0.719857815748954</v>
+        <v>-1.659974522835439</v>
       </c>
       <c r="E158">
         <v>5</v>
@@ -3554,19 +3545,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>-0.129768156722456</v>
+        <v>0.03702447585354324</v>
       </c>
       <c r="C159">
-        <v>-0.2766195294384549</v>
+        <v>0.190205140722204</v>
       </c>
       <c r="D159">
-        <v>-0.6149322296815011</v>
+        <v>-1.284175165580613</v>
       </c>
       <c r="E159">
         <v>5</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3574,19 +3565,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>-0.20693776402626</v>
+        <v>-0.2981677488625207</v>
       </c>
       <c r="C160">
-        <v>-0.4033168196854316</v>
+        <v>-0.01792275515771147</v>
       </c>
       <c r="D160">
-        <v>-0.4893365027041149</v>
+        <v>-1.442431314990764</v>
       </c>
       <c r="E160">
         <v>5</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3594,19 +3585,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>-0.7985352801651605</v>
+        <v>-1.39483346599909</v>
       </c>
       <c r="C161">
-        <v>-0.177378831802279</v>
+        <v>0.3632233704121275</v>
       </c>
       <c r="D161">
-        <v>-0.1407872720087198</v>
+        <v>-0.6482516198072792</v>
       </c>
       <c r="E161">
         <v>5</v>
       </c>
       <c r="F161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3614,19 +3605,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.3817441306626432</v>
+        <v>-0.8348242453796658</v>
       </c>
       <c r="C162">
-        <v>-0.4842273523900388</v>
+        <v>0.00807120082475743</v>
       </c>
       <c r="D162">
-        <v>-0.3351314021967492</v>
+        <v>-1.281857081361976</v>
       </c>
       <c r="E162">
         <v>5</v>
       </c>
       <c r="F162">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3634,19 +3625,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-4.538703254180294</v>
+        <v>-2.011547399033019</v>
       </c>
       <c r="C163">
-        <v>-0.8092291077702972</v>
+        <v>4.648635214697443</v>
       </c>
       <c r="D163">
-        <v>3.925601983212677</v>
+        <v>-6.269299244533381</v>
       </c>
       <c r="E163">
         <v>5</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3654,19 +3645,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-0.5849748197721101</v>
+        <v>-1.371564618205299</v>
       </c>
       <c r="C164">
-        <v>-0.6342007989230609</v>
+        <v>-0.0771419498274023</v>
       </c>
       <c r="D164">
-        <v>-0.03931747296491465</v>
+        <v>-0.9669755198133874</v>
       </c>
       <c r="E164">
         <v>5</v>
       </c>
       <c r="F164">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3674,19 +3665,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-0.7479029958905125</v>
+        <v>-0.753222977748953</v>
       </c>
       <c r="C165">
-        <v>-0.3158423919623507</v>
+        <v>0.04859225031133996</v>
       </c>
       <c r="D165">
-        <v>-0.07738038799708605</v>
+        <v>-1.018652020773114</v>
       </c>
       <c r="E165">
         <v>5</v>
       </c>
       <c r="F165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3694,19 +3685,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>-0.6096585089497428</v>
+        <v>-1.123237499334001</v>
       </c>
       <c r="C166">
-        <v>-0.4237125244274108</v>
+        <v>0.1273968917468934</v>
       </c>
       <c r="D166">
-        <v>-0.1030910009463532</v>
+        <v>-0.9236983116919011</v>
       </c>
       <c r="E166">
         <v>5</v>
       </c>
       <c r="F166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3714,13 +3705,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-0.1805647973443056</v>
+        <v>0.1057849964213274</v>
       </c>
       <c r="C167">
-        <v>-0.3612393264919302</v>
+        <v>-0.281719368920976</v>
       </c>
       <c r="D167">
-        <v>-0.4940156521713781</v>
+        <v>-1.253826438915</v>
       </c>
       <c r="E167">
         <v>5</v>
@@ -3734,19 +3725,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-0.8523720279400204</v>
+        <v>-1.779722987329253</v>
       </c>
       <c r="C168">
-        <v>-0.2149651043688404</v>
+        <v>0.2717294835204886</v>
       </c>
       <c r="D168">
-        <v>-0.02364452660945694</v>
+        <v>-0.3430958845163031</v>
       </c>
       <c r="E168">
         <v>5</v>
       </c>
       <c r="F168">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3754,19 +3745,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-0.7804057023352485</v>
+        <v>-1.370517086436463</v>
       </c>
       <c r="C169">
-        <v>-0.3149728397678985</v>
+        <v>0.06637794034947864</v>
       </c>
       <c r="D169">
-        <v>0.1486921628198078</v>
+        <v>-0.07313012599423463</v>
       </c>
       <c r="E169">
         <v>5</v>
       </c>
       <c r="F169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3774,19 +3765,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.7140710907394381</v>
+        <v>-1.567784900776831</v>
       </c>
       <c r="C170">
-        <v>-0.4675418978245906</v>
+        <v>0.1976369181618909</v>
       </c>
       <c r="D170">
-        <v>-0.05154612366368116</v>
+        <v>-1.038764756824594</v>
       </c>
       <c r="E170">
         <v>5</v>
       </c>
       <c r="F170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3794,19 +3785,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-1.102543602323236</v>
+        <v>-0.9377009105023619</v>
       </c>
       <c r="C171">
-        <v>-0.331668725902042</v>
+        <v>0.4045908481496553</v>
       </c>
       <c r="D171">
-        <v>0.3086839869198786</v>
+        <v>-1.238863538965559</v>
       </c>
       <c r="E171">
         <v>5</v>
       </c>
       <c r="F171">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3814,13 +3805,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>-0.250010251878059</v>
+        <v>0.2231160081712656</v>
       </c>
       <c r="C172">
-        <v>-0.3865811235651044</v>
+        <v>-0.1955351860589999</v>
       </c>
       <c r="D172">
-        <v>-0.5036764120279654</v>
+        <v>-1.246261010099064</v>
       </c>
       <c r="E172">
         <v>5</v>
@@ -3834,19 +3825,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>-1.105882196258616</v>
+        <v>-1.363920453755327</v>
       </c>
       <c r="C173">
-        <v>-0.2509931341198562</v>
+        <v>0.5269125007311616</v>
       </c>
       <c r="D173">
-        <v>0.107714934731316</v>
+        <v>-1.013568185270872</v>
       </c>
       <c r="E173">
         <v>5</v>
       </c>
       <c r="F173">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3854,19 +3845,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>-1.111948578560544</v>
+        <v>-1.980723826959019</v>
       </c>
       <c r="C174">
-        <v>-0.3210688832015548</v>
+        <v>0.2049078713353161</v>
       </c>
       <c r="D174">
-        <v>0.2456381243349552</v>
+        <v>-0.4439273877088021</v>
       </c>
       <c r="E174">
         <v>5</v>
       </c>
       <c r="F174">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3874,19 +3865,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-1.060051773219769</v>
+        <v>-1.562782855171422</v>
       </c>
       <c r="C175">
-        <v>-0.3338581840435053</v>
+        <v>0.341884798534282</v>
       </c>
       <c r="D175">
-        <v>0.1385590694301383</v>
+        <v>-0.5520682499330427</v>
       </c>
       <c r="E175">
         <v>5</v>
       </c>
       <c r="F175">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3894,19 +3885,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-0.4146964950688179</v>
+        <v>-1.038475011187299</v>
       </c>
       <c r="C176">
-        <v>-0.6980010408740268</v>
+        <v>-0.2779359971815131</v>
       </c>
       <c r="D176">
-        <v>-0.1609440264402101</v>
+        <v>-1.041665657092133</v>
       </c>
       <c r="E176">
         <v>5</v>
       </c>
       <c r="F176">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3914,19 +3905,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-1.876760323572282</v>
+        <v>-1.030135198461443</v>
       </c>
       <c r="C177">
-        <v>-0.7780860218243851</v>
+        <v>2.836962273872956</v>
       </c>
       <c r="D177">
-        <v>1.484361429874633</v>
+        <v>-3.746471274820661</v>
       </c>
       <c r="E177">
         <v>5</v>
       </c>
       <c r="F177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3934,19 +3925,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>-0.9820700757413451</v>
+        <v>-2.301151927204316</v>
       </c>
       <c r="C178">
-        <v>-0.3701592035615428</v>
+        <v>0.3266494006893745</v>
       </c>
       <c r="D178">
-        <v>0.1331276985362559</v>
+        <v>-0.5316936399263381</v>
       </c>
       <c r="E178">
         <v>5</v>
       </c>
       <c r="F178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3954,19 +3945,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-1.147739168864666</v>
+        <v>-4.243948882515794</v>
       </c>
       <c r="C179">
-        <v>-0.5995785464146286</v>
+        <v>1.287823847243335</v>
       </c>
       <c r="D179">
-        <v>0.4608027816852469</v>
+        <v>0.0749487783091618</v>
       </c>
       <c r="E179">
         <v>5</v>
       </c>
       <c r="F179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3974,19 +3965,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>-0.2010270966847193</v>
+        <v>7.356823506884258</v>
       </c>
       <c r="C180">
-        <v>-0.6133280561554406</v>
+        <v>0.8316231254197736</v>
       </c>
       <c r="D180">
-        <v>0.6182375334786094</v>
+        <v>-5.975615589379347</v>
       </c>
       <c r="E180">
         <v>6</v>
       </c>
       <c r="F180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3994,13 +3985,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.0920379727114217</v>
+        <v>0.5267818207979296</v>
       </c>
       <c r="C181">
-        <v>-0.7808209370632756</v>
+        <v>-0.9255775590815161</v>
       </c>
       <c r="D181">
-        <v>-0.2794026251173982</v>
+        <v>-0.7469232176317508</v>
       </c>
       <c r="E181">
         <v>6</v>
@@ -4014,19 +4005,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-0.7414240028724792</v>
+        <v>-0.8806816338054717</v>
       </c>
       <c r="C182">
-        <v>-0.5047975288362353</v>
+        <v>-0.06172794054192454</v>
       </c>
       <c r="D182">
-        <v>0.1834479125654038</v>
+        <v>-0.7146583805579338</v>
       </c>
       <c r="E182">
         <v>6</v>
       </c>
       <c r="F182">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4034,19 +4025,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-0.6480877421430308</v>
+        <v>-0.955773804835218</v>
       </c>
       <c r="C183">
-        <v>-0.315450801172305</v>
+        <v>0.4027461376232978</v>
       </c>
       <c r="D183">
-        <v>-0.1214037412483926</v>
+        <v>-1.171609226551126</v>
       </c>
       <c r="E183">
         <v>6</v>
       </c>
       <c r="F183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4054,13 +4045,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-0.6530093203481587</v>
+        <v>-1.14353008827991</v>
       </c>
       <c r="C184">
-        <v>-0.142309207688082</v>
+        <v>0.7342143558643907</v>
       </c>
       <c r="D184">
-        <v>-0.3232620543949171</v>
+        <v>-1.168682100209382</v>
       </c>
       <c r="E184">
         <v>6</v>
@@ -4074,19 +4065,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-0.3245411078989853</v>
+        <v>-0.7739102488958509</v>
       </c>
       <c r="C185">
-        <v>-0.3694664123136083</v>
+        <v>0.3689621258409412</v>
       </c>
       <c r="D185">
-        <v>-0.3739893843104737</v>
+        <v>-1.061359539984705</v>
       </c>
       <c r="E185">
         <v>6</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4094,19 +4085,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-0.7569992583780639</v>
+        <v>-1.065140945603443</v>
       </c>
       <c r="C186">
-        <v>-0.4112988249789412</v>
+        <v>0.07427471903865457</v>
       </c>
       <c r="D186">
-        <v>0.08160648816359894</v>
+        <v>-0.8223430621916752</v>
       </c>
       <c r="E186">
         <v>6</v>
       </c>
       <c r="F186">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4114,19 +4105,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-0.8418695653843914</v>
+        <v>-1.304927791102076</v>
       </c>
       <c r="C187">
-        <v>-0.5063257703689188</v>
+        <v>-0.05209410391459257</v>
       </c>
       <c r="D187">
-        <v>0.2392141585010613</v>
+        <v>-0.67770641823599</v>
       </c>
       <c r="E187">
         <v>6</v>
       </c>
       <c r="F187">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4134,19 +4125,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-0.5433434600022624</v>
+        <v>-0.5352434014789148</v>
       </c>
       <c r="C188">
-        <v>-0.3745047891158491</v>
+        <v>0.03606323654859811</v>
       </c>
       <c r="D188">
-        <v>-0.1633389203747723</v>
+        <v>-1.249850483871639</v>
       </c>
       <c r="E188">
         <v>6</v>
       </c>
       <c r="F188">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4154,19 +4145,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-0.70676080427999</v>
+        <v>-1.06122827553004</v>
       </c>
       <c r="C189">
-        <v>-0.3433818348062455</v>
+        <v>0.361668042693021</v>
       </c>
       <c r="D189">
-        <v>-0.05148097187755317</v>
+        <v>-0.9869239969289207</v>
       </c>
       <c r="E189">
         <v>6</v>
       </c>
       <c r="F189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4174,19 +4165,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>-0.5509615933839621</v>
+        <v>-0.0838453591232397</v>
       </c>
       <c r="C190">
-        <v>-0.514767499955137</v>
+        <v>-0.3625507189712963</v>
       </c>
       <c r="D190">
-        <v>-0.006473301859957231</v>
+        <v>-0.751859818279998</v>
       </c>
       <c r="E190">
         <v>6</v>
       </c>
       <c r="F190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4194,19 +4185,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-0.4445100214504124</v>
+        <v>-0.5690084774693054</v>
       </c>
       <c r="C191">
-        <v>-0.5544215800750893</v>
+        <v>-0.2031984611381406</v>
       </c>
       <c r="D191">
-        <v>-0.08392406362361751</v>
+        <v>-0.7987699083696638</v>
       </c>
       <c r="E191">
         <v>6</v>
       </c>
       <c r="F191">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4214,19 +4205,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-0.8161794842496075</v>
+        <v>0.005817791273493023</v>
       </c>
       <c r="C192">
-        <v>-0.5691158598658377</v>
+        <v>-0.6505993589549309</v>
       </c>
       <c r="D192">
-        <v>0.2751246998317807</v>
+        <v>-0.4083487276396148</v>
       </c>
       <c r="E192">
         <v>6</v>
       </c>
       <c r="F192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4234,19 +4225,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>-0.7065231503076833</v>
+        <v>-0.7616092658352758</v>
       </c>
       <c r="C193">
-        <v>-0.4362668650997272</v>
+        <v>0.2115215274196858</v>
       </c>
       <c r="D193">
-        <v>-0.02976008985830245</v>
+        <v>-1.257293383905243</v>
       </c>
       <c r="E193">
         <v>6</v>
       </c>
       <c r="F193">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4254,13 +4245,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.4774285315574356</v>
+        <v>-0.7474891430836434</v>
       </c>
       <c r="C194">
-        <v>-0.2993091045244142</v>
+        <v>0.2369601855417565</v>
       </c>
       <c r="D194">
-        <v>-0.3265702254772044</v>
+        <v>-1.320765912585548</v>
       </c>
       <c r="E194">
         <v>6</v>
@@ -4274,19 +4265,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.4337024624488279</v>
+        <v>-0.4071365487124789</v>
       </c>
       <c r="C195">
-        <v>-0.5202524369439798</v>
+        <v>-0.303150644027121</v>
       </c>
       <c r="D195">
-        <v>-0.08742402310062122</v>
+        <v>-1.093035567857605</v>
       </c>
       <c r="E195">
         <v>6</v>
       </c>
       <c r="F195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4294,19 +4285,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>-0.4325321989775174</v>
+        <v>-0.3403141377977007</v>
       </c>
       <c r="C196">
-        <v>-0.4652770920665109</v>
+        <v>-0.05323317984779108</v>
       </c>
       <c r="D196">
-        <v>-0.1242029242103852</v>
+        <v>-1.089168615290411</v>
       </c>
       <c r="E196">
         <v>6</v>
       </c>
       <c r="F196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4314,19 +4305,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-0.4926886941734845</v>
+        <v>-0.518444485920356</v>
       </c>
       <c r="C197">
-        <v>-0.4305799960224866</v>
+        <v>-0.2317647378912426</v>
       </c>
       <c r="D197">
-        <v>-0.06614545800239868</v>
+        <v>-0.7269078647031424</v>
       </c>
       <c r="E197">
         <v>6</v>
       </c>
       <c r="F197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4334,19 +4325,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.1526257601758475</v>
+        <v>-0.1916595476249124</v>
       </c>
       <c r="C198">
-        <v>-0.3436929776898069</v>
+        <v>0.007699148263372702</v>
       </c>
       <c r="D198">
-        <v>-0.5125037825786503</v>
+        <v>-1.677616577737939</v>
       </c>
       <c r="E198">
         <v>6</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4354,13 +4345,13 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>-0.06495302184175748</v>
+        <v>0.3473685919645998</v>
       </c>
       <c r="C199">
-        <v>-0.5445467600503722</v>
+        <v>-0.6826320030797489</v>
       </c>
       <c r="D199">
-        <v>-0.2028110992223615</v>
+        <v>-0.8050743372604965</v>
       </c>
       <c r="E199">
         <v>6</v>
@@ -4374,13 +4365,13 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.2494415947471236</v>
+        <v>-0.04176272668448816</v>
       </c>
       <c r="C200">
-        <v>-0.4438593563891019</v>
+        <v>-0.2219593742874472</v>
       </c>
       <c r="D200">
-        <v>-0.2744787865165466</v>
+        <v>-1.154151723165024</v>
       </c>
       <c r="E200">
         <v>6</v>
@@ -4394,19 +4385,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>-0.3516254545133101</v>
+        <v>3.702832642399246</v>
       </c>
       <c r="C201">
-        <v>-0.4064324564081783</v>
+        <v>0.518668187359819</v>
       </c>
       <c r="D201">
-        <v>0.2022675627804393</v>
+        <v>-3.573951582724705</v>
       </c>
       <c r="E201">
         <v>6</v>
       </c>
       <c r="F201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4414,19 +4405,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>-0.4008605264565672</v>
+        <v>-0.6933551785942257</v>
       </c>
       <c r="C202">
-        <v>-0.293735376340671</v>
+        <v>-0.1040177018890065</v>
       </c>
       <c r="D202">
-        <v>-0.1293822627639605</v>
+        <v>-0.4856812054344743</v>
       </c>
       <c r="E202">
         <v>6</v>
       </c>
       <c r="F202">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4434,19 +4425,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-0.4092476037445126</v>
+        <v>-0.6565039324636579</v>
       </c>
       <c r="C203">
-        <v>-0.3133686925498538</v>
+        <v>-0.05278692596774581</v>
       </c>
       <c r="D203">
-        <v>-0.2060031727664884</v>
+        <v>-0.7145637191144691</v>
       </c>
       <c r="E203">
         <v>6</v>
       </c>
       <c r="F203">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4454,19 +4445,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>-0.2182306642716502</v>
+        <v>-0.05038800458107401</v>
       </c>
       <c r="C204">
-        <v>-0.425514212379257</v>
+        <v>0.2886669743716354</v>
       </c>
       <c r="D204">
-        <v>-0.623596996598262</v>
+        <v>-2.545970577233885</v>
       </c>
       <c r="E204">
         <v>7</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4474,19 +4465,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-1.517091478682491</v>
+        <v>-2.89446888456299</v>
       </c>
       <c r="C205">
-        <v>-0.2951114587303564</v>
+        <v>1.41289689729221</v>
       </c>
       <c r="D205">
-        <v>-0.03893782987748481</v>
+        <v>-2.72757050102164</v>
       </c>
       <c r="E205">
         <v>7</v>
       </c>
       <c r="F205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4494,19 +4485,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-1.859927057862668</v>
+        <v>-2.807722823494447</v>
       </c>
       <c r="C206">
-        <v>-0.3966384639321933</v>
+        <v>1.101037176891172</v>
       </c>
       <c r="D206">
-        <v>0.4969052617431711</v>
+        <v>-2.285649601593622</v>
       </c>
       <c r="E206">
         <v>7</v>
       </c>
       <c r="F206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4514,19 +4505,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>-1.144417295863161</v>
+        <v>-1.249625555150798</v>
       </c>
       <c r="C207">
-        <v>-0.2859097451576789</v>
+        <v>0.721476545046506</v>
       </c>
       <c r="D207">
-        <v>-0.0002564437137777265</v>
+        <v>-1.679538197571542</v>
       </c>
       <c r="E207">
         <v>7</v>
       </c>
       <c r="F207">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4534,13 +4525,13 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>-0.894054539763083</v>
+        <v>-2.924248442536414</v>
       </c>
       <c r="C208">
-        <v>-0.2215211053771825</v>
+        <v>1.865559461907342</v>
       </c>
       <c r="D208">
-        <v>-0.44186482565797</v>
+        <v>-1.601904794870713</v>
       </c>
       <c r="E208">
         <v>7</v>
@@ -4554,19 +4545,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-1.175207261644061</v>
+        <v>-2.414031768962061</v>
       </c>
       <c r="C209">
-        <v>-0.3716715092758124</v>
+        <v>0.8352181546427281</v>
       </c>
       <c r="D209">
-        <v>0.06881540818278578</v>
+        <v>-1.438898320025506</v>
       </c>
       <c r="E209">
         <v>7</v>
       </c>
       <c r="F209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4574,19 +4565,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>-0.5622167028743682</v>
+        <v>-1.00627296674402</v>
       </c>
       <c r="C210">
-        <v>-0.488744819128353</v>
+        <v>0.1517570248737218</v>
       </c>
       <c r="D210">
-        <v>-0.379192624772316</v>
+        <v>-2.029992081597983</v>
       </c>
       <c r="E210">
         <v>7</v>
       </c>
       <c r="F210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4594,19 +4585,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-0.5331180765517999</v>
+        <v>-0.494572303396989</v>
       </c>
       <c r="C211">
-        <v>-0.3955896448940122</v>
+        <v>0.4104803189695835</v>
       </c>
       <c r="D211">
-        <v>-0.3449606476179373</v>
+        <v>-1.95427653697944</v>
       </c>
       <c r="E211">
         <v>7</v>
       </c>
       <c r="F211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4614,13 +4605,13 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-0.4553198218552771</v>
+        <v>-0.949816796966514</v>
       </c>
       <c r="C212">
-        <v>-0.3956196594575628</v>
+        <v>0.4335172922166209</v>
       </c>
       <c r="D212">
-        <v>-0.485815117776496</v>
+        <v>-1.587936973054554</v>
       </c>
       <c r="E212">
         <v>7</v>
@@ -4634,19 +4625,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.2659541155048347</v>
+        <v>-0.3526319768203912</v>
       </c>
       <c r="C213">
-        <v>-0.3498703125180675</v>
+        <v>0.04345542837181726</v>
       </c>
       <c r="D213">
-        <v>-0.3340137959657756</v>
+        <v>-0.8860826051704562</v>
       </c>
       <c r="E213">
         <v>8</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4654,19 +4645,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>-0.2491990813678159</v>
+        <v>-0.2890909052053431</v>
       </c>
       <c r="C214">
-        <v>-0.397797240373534</v>
+        <v>-0.2655678155536066</v>
       </c>
       <c r="D214">
-        <v>-0.1962419165254252</v>
+        <v>-0.6118341348719925</v>
       </c>
       <c r="E214">
         <v>8</v>
       </c>
       <c r="F214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4674,19 +4665,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>-0.1598142517861934</v>
+        <v>-0.06746845141200247</v>
       </c>
       <c r="C215">
-        <v>-0.2286288689840426</v>
+        <v>0.1916186542732834</v>
       </c>
       <c r="D215">
-        <v>-0.5548807175317695</v>
+        <v>-1.443062431971228</v>
       </c>
       <c r="E215">
         <v>8</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4694,19 +4685,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>-0.02795301156325335</v>
+        <v>-0.1524315342445645</v>
       </c>
       <c r="C216">
-        <v>-0.3031810575335996</v>
+        <v>0.1028986275445981</v>
       </c>
       <c r="D216">
-        <v>-0.666746410185006</v>
+        <v>-1.155644649024501</v>
       </c>
       <c r="E216">
         <v>8</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4714,13 +4705,13 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-0.115098186041602</v>
+        <v>-0.007392286016305372</v>
       </c>
       <c r="C217">
-        <v>-0.281540458612433</v>
+        <v>-0.1087952150771452</v>
       </c>
       <c r="D217">
-        <v>-0.5465851746979578</v>
+        <v>-0.9849667465158924</v>
       </c>
       <c r="E217">
         <v>8</v>
@@ -4734,19 +4725,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>-0.1147139248514048</v>
+        <v>-0.03841549241973435</v>
       </c>
       <c r="C218">
-        <v>-0.2415896683048896</v>
+        <v>0.1995225546845955</v>
       </c>
       <c r="D218">
-        <v>-0.6224470561516158</v>
+        <v>-1.336178341577956</v>
       </c>
       <c r="E218">
         <v>8</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4754,13 +4745,13 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>-0.1068015676878567</v>
+        <v>-0.02913003640980955</v>
       </c>
       <c r="C219">
-        <v>-0.3348156571316119</v>
+        <v>-0.2856614355858517</v>
       </c>
       <c r="D219">
-        <v>-0.3859700858848948</v>
+        <v>-1.002825875747769</v>
       </c>
       <c r="E219">
         <v>8</v>
@@ -4774,13 +4765,13 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>-0.169650459131817</v>
+        <v>-0.06705221776009923</v>
       </c>
       <c r="C220">
-        <v>-0.3232663011731108</v>
+        <v>-0.5296471149526766</v>
       </c>
       <c r="D220">
-        <v>-0.2978198901671021</v>
+        <v>-0.4530736137709764</v>
       </c>
       <c r="E220">
         <v>8</v>
@@ -4794,19 +4785,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>-0.09830950670234798</v>
+        <v>-0.3876249758331953</v>
       </c>
       <c r="C221">
-        <v>-0.3285740547044525</v>
+        <v>0.2461972483030694</v>
       </c>
       <c r="D221">
-        <v>-0.5804871661544536</v>
+        <v>-1.058083117752955</v>
       </c>
       <c r="E221">
         <v>8</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4814,13 +4805,13 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-0.04856309850420434</v>
+        <v>0.1771155350986309</v>
       </c>
       <c r="C222">
-        <v>-0.1799562020190503</v>
+        <v>0.1731599180217901</v>
       </c>
       <c r="D222">
-        <v>-0.7660248555266633</v>
+        <v>-1.223288694498917</v>
       </c>
       <c r="E222">
         <v>8</v>
@@ -4834,19 +4825,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>-0.07492938498020722</v>
+        <v>-0.2883130141228955</v>
       </c>
       <c r="C223">
-        <v>-0.2819004565630626</v>
+        <v>0.1693776110731573</v>
       </c>
       <c r="D223">
-        <v>-0.5974715755486064</v>
+        <v>-1.090961062446653</v>
       </c>
       <c r="E223">
         <v>8</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4854,19 +4845,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>-0.06481358491291761</v>
+        <v>-0.2038632401856768</v>
       </c>
       <c r="C224">
-        <v>-0.26666231941881</v>
+        <v>0.09017623214546366</v>
       </c>
       <c r="D224">
-        <v>-0.55453605503815</v>
+        <v>-1.135947507096095</v>
       </c>
       <c r="E224">
         <v>8</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4874,13 +4865,13 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>-0.03414129862459411</v>
+        <v>0.04113283979615273</v>
       </c>
       <c r="C225">
-        <v>-0.3180220420183453</v>
+        <v>-0.2670680367229289</v>
       </c>
       <c r="D225">
-        <v>-0.5762069717708328</v>
+        <v>-0.7897898194664452</v>
       </c>
       <c r="E225">
         <v>8</v>
@@ -4894,13 +4885,13 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.1787862783947358</v>
+        <v>0.4265951554672318</v>
       </c>
       <c r="C226">
-        <v>-0.3130282604118476</v>
+        <v>0.04209791874908264</v>
       </c>
       <c r="D226">
-        <v>-0.89586192107759</v>
+        <v>-1.713428713334444</v>
       </c>
       <c r="E226">
         <v>8</v>
@@ -4914,19 +4905,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>-0.2303874247625183</v>
+        <v>-0.3954026540143796</v>
       </c>
       <c r="C227">
-        <v>-0.2974657146079853</v>
+        <v>-0.06347802903066369</v>
       </c>
       <c r="D227">
-        <v>-0.3860622308451792</v>
+        <v>-0.4179756508362794</v>
       </c>
       <c r="E227">
         <v>8</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4934,13 +4925,13 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.05368495709987925</v>
+        <v>0.05795056584796193</v>
       </c>
       <c r="C228">
-        <v>-0.5093652277690967</v>
+        <v>-0.5343205395238275</v>
       </c>
       <c r="D228">
-        <v>-0.4393875315393182</v>
+        <v>-0.7579298836284614</v>
       </c>
       <c r="E228">
         <v>8</v>
@@ -4954,13 +4945,13 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.1109345976139739</v>
+        <v>0.2336066065591629</v>
       </c>
       <c r="C229">
-        <v>-0.4276730670665331</v>
+        <v>-0.5363548530300988</v>
       </c>
       <c r="D229">
-        <v>-0.5420246957646166</v>
+        <v>-0.7857896518629686</v>
       </c>
       <c r="E229">
         <v>8</v>
@@ -4974,19 +4965,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-0.2597204343172784</v>
+        <v>-0.3223471393945311</v>
       </c>
       <c r="C230">
-        <v>-0.4465784902736024</v>
+        <v>0.008042079971723459</v>
       </c>
       <c r="D230">
-        <v>-0.429896218042967</v>
+        <v>-1.699604608929884</v>
       </c>
       <c r="E230">
         <v>8</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4994,13 +4985,13 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-0.5810419123944802</v>
+        <v>-0.7528481701164188</v>
       </c>
       <c r="C231">
-        <v>-0.2890130187328014</v>
+        <v>-0.201430806706635</v>
       </c>
       <c r="D231">
-        <v>-0.03189625348079723</v>
+        <v>0.08096885560668848</v>
       </c>
       <c r="E231">
         <v>8</v>
@@ -5014,13 +5005,13 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.2076845418994095</v>
+        <v>0.03505242698368577</v>
       </c>
       <c r="C232">
-        <v>-0.1907092156441816</v>
+        <v>0.09639261767528529</v>
       </c>
       <c r="D232">
-        <v>-0.5721279798214964</v>
+        <v>-1.141879966443872</v>
       </c>
       <c r="E232">
         <v>8</v>
@@ -5034,19 +5025,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-0.2423764820412447</v>
+        <v>-0.3713439628493718</v>
       </c>
       <c r="C233">
-        <v>-0.2923891255277359</v>
+        <v>0.1090374203287257</v>
       </c>
       <c r="D233">
-        <v>-0.4196727584958512</v>
+        <v>-1.00150524840185</v>
       </c>
       <c r="E233">
         <v>8</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5054,19 +5045,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-0.2046522243818908</v>
+        <v>-0.425689506809294</v>
       </c>
       <c r="C234">
-        <v>-0.3310170444317891</v>
+        <v>0.005337271073973304</v>
       </c>
       <c r="D234">
-        <v>-0.341644720929685</v>
+        <v>-0.8928073629293183</v>
       </c>
       <c r="E234">
         <v>8</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5074,13 +5065,13 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.2659742933618656</v>
+        <v>0.4503789723789384</v>
       </c>
       <c r="C235">
-        <v>-0.3830585447615985</v>
+        <v>-0.5313997955401136</v>
       </c>
       <c r="D235">
-        <v>-0.8126992638695997</v>
+        <v>-1.097598668362096</v>
       </c>
       <c r="E235">
         <v>8</v>
@@ -5094,13 +5085,13 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.3467257361729213</v>
+        <v>-0.3979030257881391</v>
       </c>
       <c r="C236">
-        <v>-0.3146305070779986</v>
+        <v>0.02003906653082177</v>
       </c>
       <c r="D236">
-        <v>-0.3566147992878875</v>
+        <v>-0.5771902993203581</v>
       </c>
       <c r="E236">
         <v>8</v>
@@ -5114,13 +5105,13 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>-0.007720935375776242</v>
+        <v>0.176871784802495</v>
       </c>
       <c r="C237">
-        <v>-0.3046124625193178</v>
+        <v>0.002044685586149342</v>
       </c>
       <c r="D237">
-        <v>-0.5818549053327692</v>
+        <v>-1.383935907304875</v>
       </c>
       <c r="E237">
         <v>8</v>
@@ -5134,13 +5125,13 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.4014991849346725</v>
+        <v>0.7951337889601864</v>
       </c>
       <c r="C238">
-        <v>-0.5211128278440879</v>
+        <v>-1.193037517362558</v>
       </c>
       <c r="D238">
-        <v>-0.6596128080218007</v>
+        <v>-0.7911186937973067</v>
       </c>
       <c r="E238">
         <v>8</v>
@@ -5154,13 +5145,13 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>-0.1610328136890351</v>
+        <v>0.07052912162162123</v>
       </c>
       <c r="C239">
-        <v>-0.2477292898331198</v>
+        <v>-0.05185434066321615</v>
       </c>
       <c r="D239">
-        <v>-0.5306008829682399</v>
+        <v>-1.113987030439505</v>
       </c>
       <c r="E239">
         <v>8</v>
@@ -5174,13 +5165,13 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.2300491855360099</v>
+        <v>-0.2553253329751312</v>
       </c>
       <c r="C240">
-        <v>-0.1923159933068332</v>
+        <v>-0.1196505642430906</v>
       </c>
       <c r="D240">
-        <v>-0.3825179556477991</v>
+        <v>-0.2792779735431313</v>
       </c>
       <c r="E240">
         <v>8</v>
@@ -5194,13 +5185,13 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.02239858033554279</v>
+        <v>5.603686024969686</v>
       </c>
       <c r="C241">
-        <v>-0.3806554035573086</v>
+        <v>-0.1097596522370653</v>
       </c>
       <c r="D241">
-        <v>-0.08401929891946802</v>
+        <v>-4.234571832709143</v>
       </c>
       <c r="E241">
         <v>9</v>
@@ -5214,19 +5205,19 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-0.2408067367388707</v>
+        <v>-0.1932356753880976</v>
       </c>
       <c r="C242">
-        <v>-0.29077843361129</v>
+        <v>-0.4673347341194225</v>
       </c>
       <c r="D242">
-        <v>-0.1771424667890436</v>
+        <v>-0.226172341610591</v>
       </c>
       <c r="E242">
         <v>9</v>
       </c>
       <c r="F242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5234,13 +5225,13 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>-0.08390697817985768</v>
+        <v>0.2023317741098363</v>
       </c>
       <c r="C243">
-        <v>-0.2995226540328605</v>
+        <v>-0.6253908662090897</v>
       </c>
       <c r="D243">
-        <v>-0.4009553839436381</v>
+        <v>-0.7307076800633214</v>
       </c>
       <c r="E243">
         <v>9</v>
@@ -5254,13 +5245,13 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.1126919107395641</v>
+        <v>-0.07485880276429341</v>
       </c>
       <c r="C244">
-        <v>-0.2886611090097403</v>
+        <v>-0.2762071771123675</v>
       </c>
       <c r="D244">
-        <v>-0.5608952805664918</v>
+        <v>-1.413170405787602</v>
       </c>
       <c r="E244">
         <v>9</v>
@@ -5274,13 +5265,13 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-0.2141214705025847</v>
+        <v>-0.1018420912050934</v>
       </c>
       <c r="C245">
-        <v>-0.3053496672491918</v>
+        <v>-0.190201356701843</v>
       </c>
       <c r="D245">
-        <v>-0.3487397023741664</v>
+        <v>-0.764031526092515</v>
       </c>
       <c r="E245">
         <v>9</v>
@@ -5294,19 +5285,19 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>-0.7040788744712365</v>
+        <v>-0.04132348092970689</v>
       </c>
       <c r="C246">
-        <v>-0.2256351920006389</v>
+        <v>0.6840335078427685</v>
       </c>
       <c r="D246">
-        <v>0.0599105571688156</v>
+        <v>-1.770297416544254</v>
       </c>
       <c r="E246">
         <v>9</v>
       </c>
       <c r="F246">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5314,19 +5305,19 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-0.3231394381985585</v>
+        <v>-0.1011768614879818</v>
       </c>
       <c r="C247">
-        <v>-0.3421680931206264</v>
+        <v>-0.3358604203890507</v>
       </c>
       <c r="D247">
-        <v>-0.2073023552960082</v>
+        <v>-0.6287384902651769</v>
       </c>
       <c r="E247">
         <v>9</v>
       </c>
       <c r="F247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5334,19 +5325,19 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>-0.2846949929802703</v>
+        <v>-0.1302498421474777</v>
       </c>
       <c r="C248">
-        <v>-0.3282260159098584</v>
+        <v>-0.1689689981480959</v>
       </c>
       <c r="D248">
-        <v>-0.2803964551568038</v>
+        <v>-0.930590029487496</v>
       </c>
       <c r="E248">
         <v>9</v>
       </c>
       <c r="F248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5354,19 +5345,19 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.2679619895974976</v>
+        <v>-0.3371168727087078</v>
       </c>
       <c r="C249">
-        <v>-0.2725325667784558</v>
+        <v>-0.2716346668992081</v>
       </c>
       <c r="D249">
-        <v>-0.218280461754543</v>
+        <v>-0.5655317834927311</v>
       </c>
       <c r="E249">
         <v>9</v>
       </c>
       <c r="F249">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5374,13 +5365,13 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.2536767729578043</v>
+        <v>0.5579196810944442</v>
       </c>
       <c r="C250">
-        <v>-0.3680677498760883</v>
+        <v>-0.3111701905240731</v>
       </c>
       <c r="D250">
-        <v>-0.8055428436219643</v>
+        <v>-1.409019628851821</v>
       </c>
       <c r="E250">
         <v>9</v>
@@ -5394,19 +5385,19 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-0.1693054897793005</v>
+        <v>-0.3929954364027382</v>
       </c>
       <c r="C251">
-        <v>-0.2598427619960422</v>
+        <v>0.1714305861671668</v>
       </c>
       <c r="D251">
-        <v>-0.4423247244682944</v>
+        <v>-0.9734329783139986</v>
       </c>
       <c r="E251">
         <v>9</v>
       </c>
       <c r="F251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5414,19 +5405,19 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-0.6675910480699995</v>
+        <v>-1.118547114442104</v>
       </c>
       <c r="C252">
-        <v>-0.2372389944973384</v>
+        <v>1.069825899467564</v>
       </c>
       <c r="D252">
-        <v>-0.1332486017402397</v>
+        <v>-2.007288405406037</v>
       </c>
       <c r="E252">
         <v>9</v>
       </c>
       <c r="F252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -5434,19 +5425,19 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>-0.2824263427838725</v>
+        <v>-0.2250834145803776</v>
       </c>
       <c r="C253">
-        <v>-0.3583875853906369</v>
+        <v>-0.2094806306894533</v>
       </c>
       <c r="D253">
-        <v>-0.2979340138225514</v>
+        <v>-0.7738135014578567</v>
       </c>
       <c r="E253">
         <v>9</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5454,13 +5445,13 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>-0.1085139517376074</v>
+        <v>0.09230434422010186</v>
       </c>
       <c r="C254">
-        <v>-0.3803606758133458</v>
+        <v>-0.2193878077876217</v>
       </c>
       <c r="D254">
-        <v>-0.3970822484004075</v>
+        <v>-1.006223933843066</v>
       </c>
       <c r="E254">
         <v>9</v>
@@ -5474,13 +5465,13 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>-0.1338267768537233</v>
+        <v>0.0002021006809680981</v>
       </c>
       <c r="C255">
-        <v>-0.3050511530271928</v>
+        <v>-0.08658294996483118</v>
       </c>
       <c r="D255">
-        <v>-0.4685618745612876</v>
+        <v>-1.143638774165381</v>
       </c>
       <c r="E255">
         <v>9</v>
@@ -5494,19 +5485,19 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-0.2873178541747725</v>
+        <v>0.01794871623690192</v>
       </c>
       <c r="C256">
-        <v>-0.4443437053444426</v>
+        <v>0.8252121278572461</v>
       </c>
       <c r="D256">
-        <v>-0.1625593258819479</v>
+        <v>-2.289670657486993</v>
       </c>
       <c r="E256">
         <v>9</v>
       </c>
       <c r="F256">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5514,19 +5505,19 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>-0.3064809625722927</v>
+        <v>-0.7163792011082879</v>
       </c>
       <c r="C257">
-        <v>-0.2377962328939511</v>
+        <v>0.002966550603434426</v>
       </c>
       <c r="D257">
-        <v>-0.1527587150396759</v>
+        <v>-0.263872000408973</v>
       </c>
       <c r="E257">
         <v>9</v>
       </c>
       <c r="F257">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5534,19 +5525,19 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-0.1080984480986418</v>
+        <v>-0.2919559140835484</v>
       </c>
       <c r="C258">
-        <v>-0.3612715132564039</v>
+        <v>0.00407404113549259</v>
       </c>
       <c r="D258">
-        <v>-0.4787598608679419</v>
+        <v>-1.124713668917677</v>
       </c>
       <c r="E258">
         <v>9</v>
       </c>
       <c r="F258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -5554,13 +5545,13 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.1280408023266921</v>
+        <v>-0.08346052513928037</v>
       </c>
       <c r="C259">
-        <v>-0.3181705976429079</v>
+        <v>-0.08487446159718359</v>
       </c>
       <c r="D259">
-        <v>-0.4466913018946191</v>
+        <v>-1.253267638393967</v>
       </c>
       <c r="E259">
         <v>9</v>
@@ -5574,13 +5565,13 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>-0.1966566137700929</v>
+        <v>0.0147254299559933</v>
       </c>
       <c r="C260">
-        <v>-0.3276677030757802</v>
+        <v>-0.281723598818035</v>
       </c>
       <c r="D260">
-        <v>-0.4386853790451586</v>
+        <v>-1.068335120543134</v>
       </c>
       <c r="E260">
         <v>9</v>
@@ -5594,13 +5585,13 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>-0.050981140160727</v>
+        <v>0.433836510391201</v>
       </c>
       <c r="C261">
-        <v>-0.3394710724668877</v>
+        <v>-0.3160432222107192</v>
       </c>
       <c r="D261">
-        <v>-0.5517531815791736</v>
+        <v>-1.182805346932263</v>
       </c>
       <c r="E261">
         <v>9</v>
@@ -5614,13 +5605,13 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>-0.2443470177973012</v>
+        <v>-0.201076285440189</v>
       </c>
       <c r="C262">
-        <v>-0.2795545882777952</v>
+        <v>-0.2231914501401873</v>
       </c>
       <c r="D262">
-        <v>-0.2596997367694214</v>
+        <v>-0.5079677971605649</v>
       </c>
       <c r="E262">
         <v>9</v>
@@ -5634,13 +5625,13 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-0.1401936793811155</v>
+        <v>0.07222986789367108</v>
       </c>
       <c r="C263">
-        <v>-0.3693156672510153</v>
+        <v>-0.3207162288205447</v>
       </c>
       <c r="D263">
-        <v>-0.3619040303557723</v>
+        <v>-0.9069097258444998</v>
       </c>
       <c r="E263">
         <v>9</v>
@@ -5654,13 +5645,13 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>-0.2930408510021065</v>
+        <v>-0.3671969382259693</v>
       </c>
       <c r="C264">
-        <v>-0.2886466464080784</v>
+        <v>-0.052717114751616</v>
       </c>
       <c r="D264">
-        <v>-0.3830070679563987</v>
+        <v>-0.7809410972693209</v>
       </c>
       <c r="E264">
         <v>9</v>
@@ -5674,13 +5665,13 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>-0.2992131687911193</v>
+        <v>-0.1855833530440426</v>
       </c>
       <c r="C265">
-        <v>-0.2764895920785894</v>
+        <v>-0.04792078320069348</v>
       </c>
       <c r="D265">
-        <v>-0.4028178604511062</v>
+        <v>-0.7883194650261969</v>
       </c>
       <c r="E265">
         <v>9</v>
@@ -5694,13 +5685,13 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.1388609832974893</v>
+        <v>0.01974374839338694</v>
       </c>
       <c r="C266">
-        <v>-0.3113676440944507</v>
+        <v>-0.1271959004422523</v>
       </c>
       <c r="D266">
-        <v>-0.5031594920885325</v>
+        <v>-0.8026620389440422</v>
       </c>
       <c r="E266">
         <v>9</v>
@@ -5714,19 +5705,19 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>-0.5125246295506284</v>
+        <v>-0.3854271017369513</v>
       </c>
       <c r="C267">
-        <v>-0.2805786259337654</v>
+        <v>-0.2238436724913646</v>
       </c>
       <c r="D267">
-        <v>-0.03938256635229875</v>
+        <v>-0.3173140550288356</v>
       </c>
       <c r="E267">
         <v>9</v>
       </c>
       <c r="F267">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -5734,13 +5725,13 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.01520790127272192</v>
+        <v>-0.03176114334616159</v>
       </c>
       <c r="C268">
-        <v>-0.3093205832153356</v>
+        <v>-0.06210308492522798</v>
       </c>
       <c r="D268">
-        <v>-0.6808095293173588</v>
+        <v>-1.114347478015417</v>
       </c>
       <c r="E268">
         <v>9</v>
@@ -5754,13 +5745,13 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>-0.01535612936622988</v>
+        <v>0.2699112713361858</v>
       </c>
       <c r="C269">
-        <v>-0.2841973606003073</v>
+        <v>-0.2371646789479435</v>
       </c>
       <c r="D269">
-        <v>-0.6335245823201934</v>
+        <v>-1.001523266791626</v>
       </c>
       <c r="E269">
         <v>9</v>
@@ -5774,13 +5765,13 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>-0.2047491814482708</v>
+        <v>-0.09350771873507668</v>
       </c>
       <c r="C270">
-        <v>-0.306999640286569</v>
+        <v>-0.1682412862414601</v>
       </c>
       <c r="D270">
-        <v>-0.4380307216962619</v>
+        <v>-0.801117695909404</v>
       </c>
       <c r="E270">
         <v>9</v>
@@ -5794,13 +5785,13 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>-0.1582842952872614</v>
+        <v>0.07148420826119956</v>
       </c>
       <c r="C271">
-        <v>-0.3554569221351797</v>
+        <v>-0.2429429758477195</v>
       </c>
       <c r="D271">
-        <v>-0.4585836454545459</v>
+        <v>-0.9643888157376923</v>
       </c>
       <c r="E271">
         <v>9</v>
@@ -5814,13 +5805,13 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-0.00882904398752897</v>
+        <v>0.1691814279687848</v>
       </c>
       <c r="C272">
-        <v>-0.294810654074745</v>
+        <v>-0.01013525726067643</v>
       </c>
       <c r="D272">
-        <v>-0.727462381847322</v>
+        <v>-1.331418293124437</v>
       </c>
       <c r="E272">
         <v>9</v>
@@ -5834,13 +5825,13 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>-0.3053446006575904</v>
+        <v>-0.4480469453979732</v>
       </c>
       <c r="C273">
-        <v>-0.2417317511592041</v>
+        <v>0.02276550481000128</v>
       </c>
       <c r="D273">
-        <v>-0.4303334014876367</v>
+        <v>-0.7254201439110584</v>
       </c>
       <c r="E273">
         <v>9</v>
